--- a/data/hotels_by_city/Dallas/Dallas_shard_722.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_722.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="316">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,825 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r564458271-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>30183</t>
+  </si>
+  <si>
+    <t>268278</t>
+  </si>
+  <si>
+    <t>564458271</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r562140776-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>562140776</t>
+  </si>
+  <si>
+    <t>02/22/2018</t>
+  </si>
+  <si>
+    <t>Not clean</t>
+  </si>
+  <si>
+    <t>Upon entering my non smoking room we smelt smoke and then saw cigarette butts on the floor. So called management and they said oh no that's a non smoking room. The manager then proceeded to come check it out and just left it there and didn't apologize or offer a new room. Also sheets where stained second night.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r540201091-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>540201091</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>had a wonderful stay when i went last week so i wanted to write a review of how good the hotel was and the staff was. The hotel room was clean and the staff was kind and friendly. will be coming back again when i come back to arlington</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r514394363-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>514394363</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t>Super 8 arlington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrible service they charged my credit card twice for the rooms i had booked and they didnt even say sorry they say we will put your money back 5 to 7 days they acted like they had done nothing wrong totally incompetent </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r513205976-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>513205976</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>had no issue when i stayed, great service, clean room, had a big pool for my children, and the staff was kind and friendly. i will be staying here from now on when i come and visit my family. great location because there are many things to do around here</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r508116941-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>508116941</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Family get away</t>
+  </si>
+  <si>
+    <t>We had a weekend trip to the Rangers game with the kids. We found Super 8 to be very friendly and accommodating. We will definitely stay here again when we take another trip to Arlington.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r495448373-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>495448373</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>No room service</t>
+  </si>
+  <si>
+    <t>House keeping knocked at my door and I asked them to come back in 5 minutes. I left the room after 5 minutes as I previously indicated. I returned that evening to find my room was not cleaned. Housekeeping seemed to have problems understanding English.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r484753895-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>484753895</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Clean place to spend a night!!</t>
+  </si>
+  <si>
+    <t>We checked in to stay the night on a return trip from Alabama. The desk clerk was friendly. We had a bad experience with another hotel on this trip.  We explained it to the clerk and he let us check out the room before we committed.  It was spacious clean and the bed was comfortable. It is in a good area for shopping and eating!  We had a good nights sleep and woke up refreshed and ready to hit the road.  check out was flawless.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r482949419-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>482949419</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>Super8</t>
+  </si>
+  <si>
+    <t>Not a bad site, close to a lot of what's happening in South Arlington. Not close to the Ballpark or Cowboy Stadium.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r471427372-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>471427372</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>I had stayed at this super 8 for the past few days because I was meeting my family, the service was great, the room was clean, and the beds were very comfy. I will be back here next time I come and visit my family.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r471212077-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>471212077</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>I would not stay here again.</t>
+  </si>
+  <si>
+    <t>There was black mold in shower and on floor by toilet. There was a sign at check in that said if you ruin towels they would charge you. The pool was unusable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r470874292-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>470874292</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Comfy &amp; Quiet</t>
+  </si>
+  <si>
+    <t>The check in and room was fast and great. The location was very close to a lot of eatery choices and a mall. I would recommend this hotel and location. Very comfy and quiet. :)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r468655832-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>468655832</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r462824755-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>462824755</t>
+  </si>
+  <si>
+    <t>02/25/2017</t>
+  </si>
+  <si>
+    <t>Not Impressed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check in not a very good experience. Room not up to expectations. Had a weird odor. Bed was not made very well. Sheets not tucked tight. Pillows way too hard. Bed uncomfortable. Did not sleep well at all. Felt uncomfortable in room. Not a very secure feeling. </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r462084643-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>462084643</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r437937280-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>437937280</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>The staff was very helpful and friendly and the room was...</t>
+  </si>
+  <si>
+    <t>The staff was very helpful and friendly and the room was very nice.  The water in the tub was hard to manage.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r434444097-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>434444097</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>Not typical Super8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The past few  months I have stayed at several Super8 Hotels and this one was the worst!  Found cigarette burns in the bedspread of a non-smoking room, dead spider in the plastic wrap of drinking cup, dirty carpet and the poorest excuse for a "Super Start" breakfast!  Awoke at 2:45am by the lengthly barking of dog in room next door.  </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r431669188-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>431669188</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Barely Adequate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room had an odd odor. There was a dead roach in the middle of the floor. The king bed only had 3 pillows and when we asked for another we were told the office was closed and they couldn't help us until morning. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r418620919-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>418620919</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've stayed at this hotel several times it's overall okay not the best but diffantly not the worst. </t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r416958481-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>416958481</t>
+  </si>
+  <si>
+    <t>09/10/2016</t>
+  </si>
+  <si>
+    <t>Super 8 experience (Arlington, Tx)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I found the staff at this Super 8 hotel (Arlington, Tx) very helpful and courteous. I reserved a room with a king size bed and it was more than accommodating. I enjoyed my stay there very much, it was located close to the freeway (I-20) and main street (Cooper St) which is near downtown and both Globe Life and AT&amp;T stadiums (approx.6 miles).If visiting in the future, I would definitely stay at this hotel. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r414069441-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>414069441</t>
+  </si>
+  <si>
+    <t>09/02/2016</t>
+  </si>
+  <si>
+    <t>It's a Motel</t>
+  </si>
+  <si>
+    <t>Came in for a NFL preason football game and was on a budget...the room was fair- not fancy nor drastically outdated. I slept well, bed was not a cloud feeling but it took care of us for one night. Be prepared to put a $30 deposit and might have to ask for towels.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r364118032-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>364118032</t>
+  </si>
+  <si>
+    <t>04/14/2016</t>
+  </si>
+  <si>
+    <t>Clean room</t>
+  </si>
+  <si>
+    <t>This motel is nice and clean. Bed was acceptable to myself and my wife, which is saying something. It is located in a nice area. I would stay here again as it is an excellent value. And now, for the negatives. There was an ironing board but no iron. Not really a problem since we didn't need it. There really weren't enough towels. Only 2 bath towels, 2 hand towels, and 2 wash cloths. The towels were pretty soft for motel towels. Some of the furniture was worn but still functional. Don't let any of these "negatives" denture you from staying here. As I stated before I would stay here again because of the cleanliness and value. Disregard these minor negatives and  get some value for your money!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>This motel is nice and clean. Bed was acceptable to myself and my wife, which is saying something. It is located in a nice area. I would stay here again as it is an excellent value. And now, for the negatives. There was an ironing board but no iron. Not really a problem since we didn't need it. There really weren't enough towels. Only 2 bath towels, 2 hand towels, and 2 wash cloths. The towels were pretty soft for motel towels. Some of the furniture was worn but still functional. Don't let any of these "negatives" denture you from staying here. As I stated before I would stay here again because of the cleanliness and value. Disregard these minor negatives and  get some value for your money!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r358459511-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>358459511</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t>Very basic. Not very welcoming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lobby of this hotel was always closed at night. All correspondence was through a security window. It made me feel that they have quite a few problems. </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r348849158-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>348849158</t>
+  </si>
+  <si>
+    <t>02/18/2016</t>
+  </si>
+  <si>
+    <t>Just ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very disappointed Super 8 is allowing people to man the desk with persons who do not speak clear English nor understand English! Had to hold my arm way up in the air to change channel, the sound and even to turn the TV on/off. Not enough towels. Our room looked like a storage area for off cast furniture, then there wasn't even appropriate furniture, if we had wanted to have a meal in our room we would have had to eat off our laps or the bed...no table! The sound was bad, like there was construction going on above our room. Will consider another motel in the future! </t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r325321029-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>325321029</t>
+  </si>
+  <si>
+    <t>11/08/2015</t>
+  </si>
+  <si>
+    <t>Extra Charges</t>
+  </si>
+  <si>
+    <t>Be careful  when paying with a debit card they will add extra charges she said the towels was dirty and all we did was used them to dry off after our shower and they charged 15.00 and never washed the towels so we paid for towels that was not brand new and I'm sure they washed those towels and put them in the next room for the next person. I Will never stay here again.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r320492899-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>320492899</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r296988375-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>296988375</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>room not cool in the heat for when you enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arriving was ok but getting in the room and finding the ac wasn't where it should have the room cool in 100° temps. </t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r269797133-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>269797133</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>Bad night</t>
+  </si>
+  <si>
+    <t>The bed felt like it had a wooden edge that hurt when trying to get into bed. Lack of adequate towels and wash cloths. Room had a heavy musty smell. I would not recommend this motel.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r267184293-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>267184293</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>very pleased</t>
+  </si>
+  <si>
+    <t>Judging by the name would lead one to think this is a low end facility for a quick nights stay...I was proven wrong..I work in the hotel industry so I know the importance of great customer service I received nothing less..the from desk agent was polite helpful and very understanding 4 young girls in a new state and we were treated as if we stay all the time..the room was very clean and exactly as described on the website..the cleaning ladies where on task at all times rooms were cleaned and when asked not to the respected our wishes... Not sure who the older gentleman was cleaning the parking lot but he was very attentive as well never disturbing our stay but meeting request on demand they even had forks when we forgot late night always fresh towels and no problem receiving deposit back the only thing I regret is not having enough time to enjoy the outdoor pool which im sure I would have overall my stay was nice I got the comfort and privacy I paid for thanks again Super 8 ...MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Judging by the name would lead one to think this is a low end facility for a quick nights stay...I was proven wrong..I work in the hotel industry so I know the importance of great customer service I received nothing less..the from desk agent was polite helpful and very understanding 4 young girls in a new state and we were treated as if we stay all the time..the room was very clean and exactly as described on the website..the cleaning ladies where on task at all times rooms were cleaned and when asked not to the respected our wishes... Not sure who the older gentleman was cleaning the parking lot but he was very attentive as well never disturbing our stay but meeting request on demand they even had forks when we forgot late night always fresh towels and no problem receiving deposit back the only thing I regret is not having enough time to enjoy the outdoor pool which im sure I would have overall my stay was nice I got the comfort and privacy I paid for thanks again Super 8 ...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r265771071-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>265771071</t>
+  </si>
+  <si>
+    <t>04/14/2015</t>
+  </si>
+  <si>
+    <t>Perfect place for an hourly rental</t>
+  </si>
+  <si>
+    <t>Pulled up to check in and the lobby is locked and closed. Had to transact through bullet proof window. Red flag #1.  Finally got through to the guy that I booked on rewards points and that I have a reservation. He then asked for a credit card to put on file in case I trash the room for "incidentals", red flag #2. Finally get checked in and get back out to the car and there are shady people walking around all outside smoking and half naked. #3... I had already seen enough and we decided to chalk up the point loss and find another place to stay and lo and behold we pass several ladies dressed scantily....#4. Didn't even make it to the room. Now I work in the oilfields and am gone and staying in hotels often, so I see things. But I would never stay at this hotel nor subject my family to it. God, and those hookers, only know what those rooms were like. Patron beware. PS, I can only imagine that "incidentals" meant if I get spludge on the sheets after banging one of those fine ladies.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pulled up to check in and the lobby is locked and closed. Had to transact through bullet proof window. Red flag #1.  Finally got through to the guy that I booked on rewards points and that I have a reservation. He then asked for a credit card to put on file in case I trash the room for "incidentals", red flag #2. Finally get checked in and get back out to the car and there are shady people walking around all outside smoking and half naked. #3... I had already seen enough and we decided to chalk up the point loss and find another place to stay and lo and behold we pass several ladies dressed scantily....#4. Didn't even make it to the room. Now I work in the oilfields and am gone and staying in hotels often, so I see things. But I would never stay at this hotel nor subject my family to it. God, and those hookers, only know what those rooms were like. Patron beware. PS, I can only imagine that "incidentals" meant if I get spludge on the sheets after banging one of those fine ladies.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r256163623-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>256163623</t>
+  </si>
+  <si>
+    <t>02/24/2015</t>
+  </si>
+  <si>
+    <t>Fantastic staff, value, pet-friendly hotel.</t>
+  </si>
+  <si>
+    <t>Considerate and helpful staff, clean pet-friendly room, and good value. I stayed several nights and found the professionalism of the staff to be consistent. An added benefit is the hotel's proximity to restaurants and shopping. I will definitely stay again. MAJ Hutsell.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r250101493-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>250101493</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r249021299-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>249021299</t>
+  </si>
+  <si>
+    <t>01/12/2015</t>
+  </si>
+  <si>
+    <t>Satisfied with value for the price</t>
+  </si>
+  <si>
+    <t>Overall room and bathroom were clean and comfortable, although I observed a couple minor issues 1) roll of toilet paper was almost exhausted and there wasn't a spare roll; 2) TV remote did not work properly and 3) when the rooms are cleaned, I guess they don't check the nightstand drawer (there were 3 unopened condoms in the same drawer as the Gideon Bible)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r232147318-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>232147318</t>
+  </si>
+  <si>
+    <t>10/01/2014</t>
+  </si>
+  <si>
+    <t>Still waiting for a bill!</t>
+  </si>
+  <si>
+    <t>The room was very clean and more than adequate.  The security was good.I was not give a bill of charges.  I still do not know for sure what the charges were.  I should not have had any additional charges, but I do not know that.  I have never left a hotel before without a bill.  I do not like being treated like a thief and a vandal!</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r226478652-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>226478652</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r223400092-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>223400092</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>Not great, not horrible</t>
+  </si>
+  <si>
+    <t>I stayed her for OTJ training. The company paid for it. For being a lower end type of motel, it's not bad. The A/C works great! The room and the exterior were clean. I saw the staff walking around picking up trash. The housekeeping came in and cleaned the room while I was out during the day. There's a very slight odorous to the room but not a big deal.The bed is a little too hard for my taste, but I did sleep well. The TV is an older one and the breakfast was just honey buns and cereal. Overall, I don't have any major complaints. But then again, I didn't pay for it. It is close to fast food restaurants and gas stations, as well as to the mall and the interstate.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed her for OTJ training. The company paid for it. For being a lower end type of motel, it's not bad. The A/C works great! The room and the exterior were clean. I saw the staff walking around picking up trash. The housekeeping came in and cleaned the room while I was out during the day. There's a very slight odorous to the room but not a big deal.The bed is a little too hard for my taste, but I did sleep well. The TV is an older one and the breakfast was just honey buns and cereal. Overall, I don't have any major complaints. But then again, I didn't pay for it. It is close to fast food restaurants and gas stations, as well as to the mall and the interstate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r212814599-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>212814599</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>Only needed a place to sleep overnight and for the price it...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only needed a place to sleep overnight and for the price it served it's purpose. The pool was kinda dirty (leaves &amp; dirt settled on the bottom) . Room was stuffy, but the a/c was super cool!I </t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r212222427-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>212222427</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r207034053-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>207034053</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r193195891-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>193195891</t>
+  </si>
+  <si>
+    <t>02/05/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r186485719-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>186485719</t>
+  </si>
+  <si>
+    <t>12/01/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r183594460-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>183594460</t>
+  </si>
+  <si>
+    <t>11/04/2013</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r175640320-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>175640320</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r172108769-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>172108769</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r168762658-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>168762658</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>This location was in a great spot. Close to everything that...</t>
+  </si>
+  <si>
+    <t>This location was in a great spot. Close to everything that you can think of. Overall clean and great staff.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r162032422-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>162032422</t>
+  </si>
+  <si>
+    <t>05/27/2013</t>
+  </si>
+  <si>
+    <t>something i surely recommend</t>
+  </si>
+  <si>
+    <t>Super 8 , like its name is worth a super 8 star on the scale of super 7. A place I will surely recommend to have a wonderful stay at a home away from home. I had been at super 8 for 3 days 2 nights trip. My experience was awesome with a very helpful staff giving their best in the hospitality. To add the room service was impromptu to solve your complaints.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r142808634-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>142808634</t>
+  </si>
+  <si>
+    <t>10/14/2012</t>
+  </si>
+  <si>
+    <t>Excellent value, nicely located</t>
+  </si>
+  <si>
+    <t>This is a bargain motel that is very good...nice comfortable bed, quiet location off freeway.Continental breakfast modest but adequate.  TV is dated but ok.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r142627580-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>142627580</t>
+  </si>
+  <si>
+    <t>10/12/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r119200613-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>119200613</t>
+  </si>
+  <si>
+    <t>10/11/2011</t>
+  </si>
+  <si>
+    <t>It's okay but over priced</t>
+  </si>
+  <si>
+    <t>We have stayed here before, overall I'm still not impressed.  They do keep the place up and the rooms are clean.  Our room had two beds but there were only enough towels for two people (we had reserved a room for three, by the way).  The "Super Start" breakfast amounted to a few pastries, some cereal, coffee and juice and two bananas and an apple.  We were considering extending our stay anyway but I found a cheaper room at a motel nearby where we would be able to cook our meals so we went there.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r115944387-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>115944387</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>Scam and hellacious</t>
+  </si>
+  <si>
+    <t>Today was an unbeliveable day. My girlfriend and i are in the process of moving. Power mistakenly got cut off a month ahead of schedule. So upon hours upon hours they realize there mistake and promise to have power on. Well never happend. And bein texas weather as it is, no ac had to go some where cool. So my gf and i was one day away from being paid, so she borrowed money from her mom, and a friend 68 In all as was the price of room. She checks in, we shower as were sooooo hot from being in hot sun all day, the office then calls the room and says they need a 20 $ Deposite. Well we didnt have it. Asked if they could wait till midnight and run the debit card, said no and we had to leave. And no refund. So the 68 That they charged for room they kept. No refund policcy. My gf mom called there from ny to ask for manager and complain and each time they hung up on her. So here we had to go back to the hot apt, deal with the elec company, and on top of that she had to call into work. So be alert. Go else where.MoreShow less</t>
+  </si>
+  <si>
+    <t>Today was an unbeliveable day. My girlfriend and i are in the process of moving. Power mistakenly got cut off a month ahead of schedule. So upon hours upon hours they realize there mistake and promise to have power on. Well never happend. And bein texas weather as it is, no ac had to go some where cool. So my gf and i was one day away from being paid, so she borrowed money from her mom, and a friend 68 In all as was the price of room. She checks in, we shower as were sooooo hot from being in hot sun all day, the office then calls the room and says they need a 20 $ Deposite. Well we didnt have it. Asked if they could wait till midnight and run the debit card, said no and we had to leave. And no refund. So the 68 That they charged for room they kept. No refund policcy. My gf mom called there from ny to ask for manager and complain and each time they hung up on her. So here we had to go back to the hot apt, deal with the elec company, and on top of that she had to call into work. So be alert. Go else where.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r12050513-Super_8_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>12050513</t>
+  </si>
+  <si>
+    <t>12/29/2007</t>
+  </si>
+  <si>
+    <t>ok room, not really personable people</t>
+  </si>
+  <si>
+    <t>Room was ok - beds were sufficient for my family of five (assuming one slept on the floor). The so-called "Super Start Breakfast" was little donuts, corn flakes, froot loops, english muffuns. That's about it.The desk people were efficient, but not very friendly. If all you need is a night's stay, this ought to work fine.</t>
+  </si>
+  <si>
+    <t>December 2007</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1464,3271 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" t="s">
+        <v>108</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>103</v>
+      </c>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>103</v>
+      </c>
+      <c r="O14" t="s">
+        <v>117</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" t="s">
+        <v>121</v>
+      </c>
+      <c r="L15" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>123</v>
+      </c>
+      <c r="O15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>123</v>
+      </c>
+      <c r="O16" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" t="s">
+        <v>131</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>132</v>
+      </c>
+      <c r="O17" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J18" t="s">
+        <v>135</v>
+      </c>
+      <c r="K18" t="s">
+        <v>136</v>
+      </c>
+      <c r="L18" t="s">
+        <v>137</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>138</v>
+      </c>
+      <c r="O18" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" t="s">
+        <v>141</v>
+      </c>
+      <c r="K19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>138</v>
+      </c>
+      <c r="O19" t="s">
+        <v>97</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" t="s">
+        <v>148</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>149</v>
+      </c>
+      <c r="O20" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J21" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" t="s">
+        <v>153</v>
+      </c>
+      <c r="L21" t="s">
+        <v>154</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>149</v>
+      </c>
+      <c r="O21" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>156</v>
+      </c>
+      <c r="J22" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" t="s">
+        <v>158</v>
+      </c>
+      <c r="L22" t="s">
+        <v>159</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>149</v>
+      </c>
+      <c r="O22" t="s">
+        <v>56</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>161</v>
+      </c>
+      <c r="J23" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" t="s">
+        <v>163</v>
+      </c>
+      <c r="L23" t="s">
+        <v>164</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>165</v>
+      </c>
+      <c r="O23" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>168</v>
+      </c>
+      <c r="J24" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" t="s">
+        <v>170</v>
+      </c>
+      <c r="L24" t="s">
+        <v>171</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>172</v>
+      </c>
+      <c r="O24" t="s">
+        <v>50</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" t="s">
+        <v>176</v>
+      </c>
+      <c r="L25" t="s">
+        <v>177</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>178</v>
+      </c>
+      <c r="O25" t="s">
+        <v>56</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>180</v>
+      </c>
+      <c r="J26" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" t="s">
+        <v>182</v>
+      </c>
+      <c r="L26" t="s">
+        <v>183</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>184</v>
+      </c>
+      <c r="O26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>186</v>
+      </c>
+      <c r="J27" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>184</v>
+      </c>
+      <c r="O27" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>189</v>
+      </c>
+      <c r="J28" t="s">
+        <v>190</v>
+      </c>
+      <c r="K28" t="s">
+        <v>191</v>
+      </c>
+      <c r="L28" t="s">
+        <v>192</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>193</v>
+      </c>
+      <c r="O28" t="s">
+        <v>97</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>195</v>
+      </c>
+      <c r="J29" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" t="s">
+        <v>197</v>
+      </c>
+      <c r="L29" t="s">
+        <v>198</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>199</v>
+      </c>
+      <c r="O29" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>201</v>
+      </c>
+      <c r="J30" t="s">
+        <v>202</v>
+      </c>
+      <c r="K30" t="s">
+        <v>203</v>
+      </c>
+      <c r="L30" t="s">
+        <v>204</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>199</v>
+      </c>
+      <c r="O30" t="s">
+        <v>205</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>208</v>
+      </c>
+      <c r="J31" t="s">
+        <v>209</v>
+      </c>
+      <c r="K31" t="s">
+        <v>210</v>
+      </c>
+      <c r="L31" t="s">
+        <v>211</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>199</v>
+      </c>
+      <c r="O31" t="s">
+        <v>56</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>214</v>
+      </c>
+      <c r="J32" t="s">
+        <v>215</v>
+      </c>
+      <c r="K32" t="s">
+        <v>216</v>
+      </c>
+      <c r="L32" t="s">
+        <v>217</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>218</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>219</v>
+      </c>
+      <c r="J33" t="s">
+        <v>220</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s">
+        <v>221</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>222</v>
+      </c>
+      <c r="O33" t="s">
+        <v>56</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>224</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>225</v>
+      </c>
+      <c r="J34" t="s">
+        <v>226</v>
+      </c>
+      <c r="K34" t="s">
+        <v>227</v>
+      </c>
+      <c r="L34" t="s">
+        <v>228</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>222</v>
+      </c>
+      <c r="O34" t="s">
+        <v>50</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>229</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>230</v>
+      </c>
+      <c r="J35" t="s">
+        <v>231</v>
+      </c>
+      <c r="K35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L35" t="s">
+        <v>233</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>234</v>
+      </c>
+      <c r="O35" t="s">
+        <v>56</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>236</v>
+      </c>
+      <c r="J36" t="s">
+        <v>237</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>238</v>
+      </c>
+      <c r="O36" t="s">
+        <v>50</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>239</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>240</v>
+      </c>
+      <c r="J37" t="s">
+        <v>241</v>
+      </c>
+      <c r="K37" t="s">
+        <v>242</v>
+      </c>
+      <c r="L37" t="s">
+        <v>243</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>238</v>
+      </c>
+      <c r="O37" t="s">
+        <v>117</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>245</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>246</v>
+      </c>
+      <c r="J38" t="s">
+        <v>247</v>
+      </c>
+      <c r="K38" t="s">
+        <v>248</v>
+      </c>
+      <c r="L38" t="s">
+        <v>249</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>250</v>
+      </c>
+      <c r="O38" t="s">
+        <v>56</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>251</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>252</v>
+      </c>
+      <c r="J39" t="s">
+        <v>253</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s">
+        <v>221</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>250</v>
+      </c>
+      <c r="O39" t="s">
+        <v>56</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>254</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>255</v>
+      </c>
+      <c r="J40" t="s">
+        <v>256</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>257</v>
+      </c>
+      <c r="O40" t="s">
+        <v>56</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>258</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>259</v>
+      </c>
+      <c r="J41" t="s">
+        <v>260</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>261</v>
+      </c>
+      <c r="O41" t="s">
+        <v>117</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>262</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>263</v>
+      </c>
+      <c r="J42" t="s">
+        <v>264</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>265</v>
+      </c>
+      <c r="O42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>266</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>267</v>
+      </c>
+      <c r="J43" t="s">
+        <v>268</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>269</v>
+      </c>
+      <c r="O43" t="s">
+        <v>117</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>270</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>271</v>
+      </c>
+      <c r="J44" t="s">
+        <v>272</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>269</v>
+      </c>
+      <c r="O44" t="s">
+        <v>56</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>273</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>274</v>
+      </c>
+      <c r="J45" t="s">
+        <v>275</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>276</v>
+      </c>
+      <c r="O45" t="s">
+        <v>117</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>277</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>278</v>
+      </c>
+      <c r="J46" t="s">
+        <v>279</v>
+      </c>
+      <c r="K46" t="s">
+        <v>280</v>
+      </c>
+      <c r="L46" t="s">
+        <v>281</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>282</v>
+      </c>
+      <c r="O46" t="s">
+        <v>56</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>283</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>284</v>
+      </c>
+      <c r="J47" t="s">
+        <v>285</v>
+      </c>
+      <c r="K47" t="s">
+        <v>286</v>
+      </c>
+      <c r="L47" t="s">
+        <v>287</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>288</v>
+      </c>
+      <c r="O47" t="s">
+        <v>56</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>289</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>290</v>
+      </c>
+      <c r="J48" t="s">
+        <v>291</v>
+      </c>
+      <c r="K48" t="s">
+        <v>292</v>
+      </c>
+      <c r="L48" t="s">
+        <v>293</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>294</v>
+      </c>
+      <c r="O48" t="s">
+        <v>56</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>295</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>296</v>
+      </c>
+      <c r="J49" t="s">
+        <v>297</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>294</v>
+      </c>
+      <c r="O49" t="s">
+        <v>56</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>298</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>299</v>
+      </c>
+      <c r="J50" t="s">
+        <v>300</v>
+      </c>
+      <c r="K50" t="s">
+        <v>301</v>
+      </c>
+      <c r="L50" t="s">
+        <v>302</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>303</v>
+      </c>
+      <c r="O50" t="s">
+        <v>56</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>304</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>305</v>
+      </c>
+      <c r="J51" t="s">
+        <v>306</v>
+      </c>
+      <c r="K51" t="s">
+        <v>307</v>
+      </c>
+      <c r="L51" t="s">
+        <v>308</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>310</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>311</v>
+      </c>
+      <c r="J52" t="s">
+        <v>312</v>
+      </c>
+      <c r="K52" t="s">
+        <v>313</v>
+      </c>
+      <c r="L52" t="s">
+        <v>314</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>315</v>
+      </c>
+      <c r="O52" t="s">
+        <v>56</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>314</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_722.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_722.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="367">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>antonioramirez2118</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -171,6 +174,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>teaves337866</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r562140776-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -189,6 +195,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Kenny H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r540201091-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -207,6 +216,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>R6448DRricardop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r514394363-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -225,6 +237,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>Courtney T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r513205976-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -237,6 +252,9 @@
     <t>had no issue when i stayed, great service, clean room, had a big pool for my children, and the staff was kind and friendly. i will be staying here from now on when i come and visit my family. great location because there are many things to do around here</t>
   </si>
   <si>
+    <t>angiev237</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r508116941-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -255,6 +273,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Timothy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r495448373-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -273,6 +294,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>sroy2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r484753895-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -291,6 +315,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>bruced205</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r482949419-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -312,6 +339,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Pedro M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r471427372-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -330,6 +360,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Z5229JMchristines</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r471212077-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -345,6 +378,9 @@
     <t>There was black mold in shower and on floor by toilet. There was a sign at check in that said if you ruin towels they would charge you. The pool was unusable.</t>
   </si>
   <si>
+    <t>Vero M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r470874292-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -360,6 +396,9 @@
     <t>The check in and room was fast and great. The location was very close to a lot of eatery choices and a mall. I would recommend this hotel and location. Very comfy and quiet. :)</t>
   </si>
   <si>
+    <t>inct2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r468655832-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -372,6 +411,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>P6555CZnancyc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r462824755-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -390,6 +432,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>734remir</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r462084643-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -399,6 +444,9 @@
     <t>02/22/2017</t>
   </si>
   <si>
+    <t>Q2502SLcatherineh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r437937280-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -417,6 +465,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>mdw001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r434444097-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -435,6 +486,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Jeremy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r431669188-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -450,6 +504,9 @@
     <t xml:space="preserve">The room had an odd odor. There was a dead roach in the middle of the floor. The king bed only had 3 pillows and when we asked for another we were told the office was closed and they couldn't help us until morning. </t>
   </si>
   <si>
+    <t>angelagF4303LK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r418620919-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -468,6 +525,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Russell R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r416958481-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -483,6 +543,9 @@
     <t xml:space="preserve">I found the staff at this Super 8 hotel (Arlington, Tx) very helpful and courteous. I reserved a room with a king size bed and it was more than accommodating. I enjoyed my stay there very much, it was located close to the freeway (I-20) and main street (Cooper St) which is near downtown and both Globe Life and AT&amp;T stadiums (approx.6 miles).If visiting in the future, I would definitely stay at this hotel. </t>
   </si>
   <si>
+    <t>KAT C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r414069441-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -498,6 +561,9 @@
     <t>Came in for a NFL preason football game and was on a budget...the room was fair- not fancy nor drastically outdated. I slept well, bed was not a cloud feeling but it took care of us for one night. Be prepared to put a $30 deposit and might have to ask for towels.</t>
   </si>
   <si>
+    <t>ZsH1313</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r364118032-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -519,6 +585,9 @@
     <t>This motel is nice and clean. Bed was acceptable to myself and my wife, which is saying something. It is located in a nice area. I would stay here again as it is an excellent value. And now, for the negatives. There was an ironing board but no iron. Not really a problem since we didn't need it. There really weren't enough towels. Only 2 bath towels, 2 hand towels, and 2 wash cloths. The towels were pretty soft for motel towels. Some of the furniture was worn but still functional. Don't let any of these "negatives" denture you from staying here. As I stated before I would stay here again because of the cleanliness and value. Disregard these minor negatives and  get some value for your money!More</t>
   </si>
   <si>
+    <t>judymK6993GQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r358459511-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -537,6 +606,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>michaelhC1887HU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r348849158-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -555,6 +627,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Tonya W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r325321029-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -573,6 +648,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>420kerryh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r320492899-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -582,6 +660,9 @@
     <t>10/20/2015</t>
   </si>
   <si>
+    <t>514jackp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r296988375-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -600,6 +681,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Glen T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r269797133-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -618,6 +702,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>TravelJ47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r267184293-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -639,6 +726,9 @@
     <t>Judging by the name would lead one to think this is a low end facility for a quick nights stay...I was proven wrong..I work in the hotel industry so I know the importance of great customer service I received nothing less..the from desk agent was polite helpful and very understanding 4 young girls in a new state and we were treated as if we stay all the time..the room was very clean and exactly as described on the website..the cleaning ladies where on task at all times rooms were cleaned and when asked not to the respected our wishes... Not sure who the older gentleman was cleaning the parking lot but he was very attentive as well never disturbing our stay but meeting request on demand they even had forks when we forgot late night always fresh towels and no problem receiving deposit back the only thing I regret is not having enough time to enjoy the outdoor pool which im sure I would have overall my stay was nice I got the comfort and privacy I paid for thanks again Super 8 ...More</t>
   </si>
   <si>
+    <t>Brandon S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r265771071-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -657,6 +747,9 @@
     <t>Pulled up to check in and the lobby is locked and closed. Had to transact through bullet proof window. Red flag #1.  Finally got through to the guy that I booked on rewards points and that I have a reservation. He then asked for a credit card to put on file in case I trash the room for "incidentals", red flag #2. Finally get checked in and get back out to the car and there are shady people walking around all outside smoking and half naked. #3... I had already seen enough and we decided to chalk up the point loss and find another place to stay and lo and behold we pass several ladies dressed scantily....#4. Didn't even make it to the room. Now I work in the oilfields and am gone and staying in hotels often, so I see things. But I would never stay at this hotel nor subject my family to it. God, and those hookers, only know what those rooms were like. Patron beware. PS, I can only imagine that "incidentals" meant if I get spludge on the sheets after banging one of those fine ladies.More</t>
   </si>
   <si>
+    <t>Loren H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r256163623-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -672,6 +765,9 @@
     <t>Considerate and helpful staff, clean pet-friendly room, and good value. I stayed several nights and found the professionalism of the staff to be consistent. An added benefit is the hotel's proximity to restaurants and shopping. I will definitely stay again. MAJ Hutsell.</t>
   </si>
   <si>
+    <t>Melvin J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r250101493-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -690,6 +786,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>deniseo748</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r249021299-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -705,6 +804,9 @@
     <t>Overall room and bathroom were clean and comfortable, although I observed a couple minor issues 1) roll of toilet paper was almost exhausted and there wasn't a spare roll; 2) TV remote did not work properly and 3) when the rooms are cleaned, I guess they don't check the nightstand drawer (there were 3 unopened condoms in the same drawer as the Gideon Bible)</t>
   </si>
   <si>
+    <t>Bernard M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r232147318-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -723,6 +825,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Brenda T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r226478652-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -735,6 +840,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Army_Sarah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r223400092-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -753,6 +861,9 @@
     <t>I stayed her for OTJ training. The company paid for it. For being a lower end type of motel, it's not bad. The A/C works great! The room and the exterior were clean. I saw the staff walking around picking up trash. The housekeeping came in and cleaned the room while I was out during the day. There's a very slight odorous to the room but not a big deal.The bed is a little too hard for my taste, but I did sleep well. The TV is an older one and the breakfast was just honey buns and cereal. Overall, I don't have any major complaints. But then again, I didn't pay for it. It is close to fast food restaurants and gas stations, as well as to the mall and the interstate.More</t>
   </si>
   <si>
+    <t>Teresa R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r212814599-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -771,6 +882,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Jaime V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r212222427-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -780,6 +894,9 @@
     <t>06/26/2014</t>
   </si>
   <si>
+    <t>Reza A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r207034053-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -792,6 +909,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Diana C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r193195891-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -804,6 +924,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Denny W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r186485719-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -816,6 +939,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>John S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r183594460-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -828,6 +954,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Jonathan V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r175640320-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -837,6 +966,9 @@
     <t>09/03/2013</t>
   </si>
   <si>
+    <t>Staci U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r172108769-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -849,6 +981,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Angela M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r168762658-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -867,6 +1002,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>mullerj772</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r162032422-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -885,6 +1023,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Donald G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r142808634-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -903,6 +1044,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>DEBORAH P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r142627580-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -912,6 +1056,9 @@
     <t>10/12/2012</t>
   </si>
   <si>
+    <t>chalcat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r119200613-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -930,6 +1077,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>Stevenneilsen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r115944387-Super_8_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
@@ -946,6 +1096,9 @@
   </si>
   <si>
     <t>Today was an unbeliveable day. My girlfriend and i are in the process of moving. Power mistakenly got cut off a month ahead of schedule. So upon hours upon hours they realize there mistake and promise to have power on. Well never happend. And bein texas weather as it is, no ac had to go some where cool. So my gf and i was one day away from being paid, so she borrowed money from her mom, and a friend 68 In all as was the price of room. She checks in, we shower as were sooooo hot from being in hot sun all day, the office then calls the room and says they need a 20 $ Deposite. Well we didnt have it. Asked if they could wait till midnight and run the debit card, said no and we had to leave. And no refund. So the 68 That they charged for room they kept. No refund policcy. My gf mom called there from ny to ask for manager and complain and each time they hung up on her. So here we had to go back to the hot apt, deal with the elec company, and on top of that she had to call into work. So be alert. Go else where.More</t>
+  </si>
+  <si>
+    <t>Richard75686</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r12050513-Super_8_Arlington_East-Arlington_Texas.html</t>
@@ -1468,28 +1621,32 @@
       <c r="A2" t="n">
         <v>42427</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>178373</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="s"/>
@@ -1497,10 +1654,10 @@
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1521,51 +1678,52 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
-      <c r="Y2" t="s"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>42427</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>178374</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -1589,50 +1747,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>42427</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>88977</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1652,50 +1814,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>42427</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>178375</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -1719,50 +1885,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>42427</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>178376</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>72</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>68</v>
-      </c>
       <c r="O6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1780,50 +1950,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>42427</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>178377</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1847,50 +2021,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>42427</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>5098</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -1914,50 +2092,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>42427</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>178378</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -1977,50 +2159,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>42427</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>178379</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2044,50 +2230,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>42427</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>178380</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2101,50 +2291,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>42427</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>178381</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -2168,50 +2362,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>42427</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>178382</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>113</v>
       </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>103</v>
-      </c>
       <c r="O13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2235,35 +2433,39 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>42427</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>178383</v>
+      </c>
+      <c r="C14" t="s">
+        <v>126</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -2271,10 +2473,10 @@
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="O14" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2295,51 +2497,52 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>42427</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>178384</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="O15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -2363,35 +2566,39 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>42427</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>178385</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -2399,10 +2606,10 @@
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="O16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2423,51 +2630,52 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>42427</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>178386</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J17" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="K17" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="L17" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="O17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2491,50 +2699,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>42427</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>178387</v>
+      </c>
+      <c r="C18" t="s">
+        <v>149</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="J18" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="K18" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="L18" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="O18" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="P18" t="n">
         <v>2</v>
@@ -2558,50 +2770,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>42427</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>24613</v>
+      </c>
+      <c r="C19" t="s">
+        <v>156</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="J19" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="O19" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2615,50 +2831,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>42427</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>178388</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="J20" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="K20" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="L20" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="O20" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -2682,50 +2902,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>42427</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>10100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>169</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="J21" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="K21" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="O21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2749,50 +2973,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>42427</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>178389</v>
+      </c>
+      <c r="C22" t="s">
+        <v>175</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="J22" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="K22" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="O22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2806,50 +3034,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>42427</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>178390</v>
+      </c>
+      <c r="C23" t="s">
+        <v>181</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="J23" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="K23" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="L23" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="O23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2873,50 +3105,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>42427</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>178391</v>
+      </c>
+      <c r="C24" t="s">
+        <v>189</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="J24" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="K24" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="O24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -2940,50 +3176,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>42427</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>178392</v>
+      </c>
+      <c r="C25" t="s">
+        <v>196</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="J25" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="K25" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="O25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3007,50 +3247,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>42427</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>178393</v>
+      </c>
+      <c r="C26" t="s">
+        <v>203</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="J26" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="K26" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="L26" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="O26" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3064,35 +3308,39 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>42427</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>178394</v>
+      </c>
+      <c r="C27" t="s">
+        <v>210</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="J27" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -3100,10 +3348,10 @@
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="O27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3124,51 +3372,52 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>42427</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>178395</v>
+      </c>
+      <c r="C28" t="s">
+        <v>214</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="J28" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="K28" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="L28" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="O28" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -3192,50 +3441,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>42427</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>178396</v>
+      </c>
+      <c r="C29" t="s">
+        <v>221</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="J29" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="K29" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="L29" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="O29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3259,50 +3512,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>42427</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>178397</v>
+      </c>
+      <c r="C30" t="s">
+        <v>228</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="J30" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="K30" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="O30" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3326,50 +3583,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>42427</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>20626</v>
+      </c>
+      <c r="C31" t="s">
+        <v>236</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="J31" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="K31" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="L31" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="O31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3383,41 +3644,45 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>42427</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>101810</v>
+      </c>
+      <c r="C32" t="s">
+        <v>243</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="J32" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="K32" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="L32" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
@@ -3446,48 +3711,52 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>42427</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>39902</v>
+      </c>
+      <c r="C33" t="s">
+        <v>249</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="J33" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="O33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -3511,50 +3780,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>42427</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>178398</v>
+      </c>
+      <c r="C34" t="s">
+        <v>256</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="J34" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="K34" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="O34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -3578,50 +3851,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>42427</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>89474</v>
+      </c>
+      <c r="C35" t="s">
+        <v>262</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="J35" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="K35" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="L35" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="O35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -3645,35 +3922,39 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>42427</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>24107</v>
+      </c>
+      <c r="C36" t="s">
+        <v>269</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="J36" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
@@ -3681,10 +3962,10 @@
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="O36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3705,51 +3986,52 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>42427</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>178399</v>
+      </c>
+      <c r="C37" t="s">
+        <v>274</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="J37" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="K37" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="L37" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="O37" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -3769,50 +4051,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>42427</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>23047</v>
+      </c>
+      <c r="C38" t="s">
+        <v>281</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="J38" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="K38" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="L38" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="O38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -3836,48 +4122,52 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>42427</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>178400</v>
+      </c>
+      <c r="C39" t="s">
+        <v>288</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="J39" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
@@ -3901,35 +4191,39 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>42427</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>178401</v>
+      </c>
+      <c r="C40" t="s">
+        <v>292</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="J40" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
@@ -3937,10 +4231,10 @@
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="O40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -3961,36 +4255,37 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>42427</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>57864</v>
+      </c>
+      <c r="C41" t="s">
+        <v>297</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="J41" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -3998,10 +4293,10 @@
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="O41" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4022,36 +4317,37 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>42427</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>76523</v>
+      </c>
+      <c r="C42" t="s">
+        <v>302</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="J42" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
@@ -4059,10 +4355,10 @@
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="O42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4083,36 +4379,37 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
-      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>42427</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>6540</v>
+      </c>
+      <c r="C43" t="s">
+        <v>307</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="J43" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -4120,10 +4417,10 @@
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="O43" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4144,36 +4441,37 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>42427</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>178402</v>
+      </c>
+      <c r="C44" t="s">
+        <v>312</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="J44" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s"/>
@@ -4181,10 +4479,10 @@
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="O44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -4205,36 +4503,37 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
-      <c r="Y44" t="s"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>42427</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>178403</v>
+      </c>
+      <c r="C45" t="s">
+        <v>316</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="J45" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s"/>
@@ -4242,10 +4541,10 @@
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="O45" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -4266,51 +4565,52 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>42427</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>5152</v>
+      </c>
+      <c r="C46" t="s">
+        <v>321</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>277</v>
+        <v>322</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="J46" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="K46" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="L46" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="O46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4334,50 +4634,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>42427</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>178404</v>
+      </c>
+      <c r="C47" t="s">
+        <v>328</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="J47" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="K47" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="L47" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="O47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4401,50 +4705,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>42427</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>6944</v>
+      </c>
+      <c r="C48" t="s">
+        <v>335</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="J48" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="K48" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="L48" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="O48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4468,35 +4776,39 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>42427</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>178405</v>
+      </c>
+      <c r="C49" t="s">
+        <v>342</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="J49" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s"/>
@@ -4504,10 +4816,10 @@
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="O49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -4528,51 +4840,52 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
-      <c r="Y49" t="s"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>42427</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>178406</v>
+      </c>
+      <c r="C50" t="s">
+        <v>346</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="J50" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="K50" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="L50" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="O50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P50" t="n">
         <v>2</v>
@@ -4596,41 +4909,45 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>42427</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>178407</v>
+      </c>
+      <c r="C51" t="s">
+        <v>353</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="J51" t="s">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="K51" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="L51" t="s">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
@@ -4659,50 +4976,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>309</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>42427</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>178408</v>
+      </c>
+      <c r="C52" t="s">
+        <v>360</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>310</v>
+        <v>361</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
       <c r="J52" t="s">
-        <v>312</v>
+        <v>363</v>
       </c>
       <c r="K52" t="s">
-        <v>313</v>
+        <v>364</v>
       </c>
       <c r="L52" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>315</v>
+        <v>366</v>
       </c>
       <c r="O52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -4726,7 +5047,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_722.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_722.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="495">
   <si>
     <t>STR#</t>
   </si>
@@ -147,13 +147,10 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>antonioramirez2118</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r564458271-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r590593921-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>30183</t>
@@ -162,6 +159,120 @@
     <t>268278</t>
   </si>
   <si>
+    <t>590593921</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Worst hotel stay yet!</t>
+  </si>
+  <si>
+    <t>Rooms was dirty! Reeked of cigarette smoke! They called me at 5pm and told me if I wasn't there by 9pm they were cancelling my reservation (even though I held it with a credit card).  They said some lady ordered 5 rooms last week and cancelled so that was the new way they were handling it so I had to rush to secure my room because of the concert the entire area was sold out!  To top that off?  They rolled trashcans by all the guest doors on the concrete landing at 7 a.m. and it woke me up (I had gotten back to the room at midnight).  The lobby looked like a porno set with rude signs all over the walls.  If I wasn't desperate I would have cancelled for sure.  I will NEVER visit another Super 8 or Howard Johnson ever.  They didn't email me my reservation information so I had to call every Super 8 in Arlington and not one person spoke English.  I finally had to call Wyndam and get my information.   Sleep in your car before you go here!  Trust me!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Rooms was dirty! Reeked of cigarette smoke! They called me at 5pm and told me if I wasn't there by 9pm they were cancelling my reservation (even though I held it with a credit card).  They said some lady ordered 5 rooms last week and cancelled so that was the new way they were handling it so I had to rush to secure my room because of the concert the entire area was sold out!  To top that off?  They rolled trashcans by all the guest doors on the concrete landing at 7 a.m. and it woke me up (I had gotten back to the room at midnight).  The lobby looked like a porno set with rude signs all over the walls.  If I wasn't desperate I would have cancelled for sure.  I will NEVER visit another Super 8 or Howard Johnson ever.  They didn't email me my reservation information so I had to call every Super 8 in Arlington and not one person spoke English.  I finally had to call Wyndam and get my information.   Sleep in your car before you go here!  Trust me!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r575844220-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>575844220</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>Nice but not the Hilton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOU CAN NOT CHECK IN AFTER 9pm.  This is a older property that is pretty nice considering.  There is a bowling alley/game room/bar/batting cages/putt putt golf right across the street.  I like the location not being on a busy street. </t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r589476534-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>589476534</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Meh</t>
+  </si>
+  <si>
+    <t>Was expecting something better from some of the reviews I read. The room was clean &amp; the A/C worked but those were about the only pros. The pillows were flat, bug crawling on ceiling, water stains in bathroom,had get hand towels &amp; wash clothes from front desk, had a cool reception from the front desk clerk- had to ask him for WiFi password, he seemed less than enthused to help me, an immediate  $30 charge for any possible damages/missing items was charged to my card or I had the choice of paying in cash. I was told it would be refunded after check out after they had checked the room for damages.....I choose to wait while they did the check to make sure I got refunded my money. They're breakfast was a joke... just cereal &amp; Leggo waffles, no real choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Was expecting something better from some of the reviews I read. The room was clean &amp; the A/C worked but those were about the only pros. The pillows were flat, bug crawling on ceiling, water stains in bathroom,had get hand towels &amp; wash clothes from front desk, had a cool reception from the front desk clerk- had to ask him for WiFi password, he seemed less than enthused to help me, an immediate  $30 charge for any possible damages/missing items was charged to my card or I had the choice of paying in cash. I was told it would be refunded after check out after they had checked the room for damages.....I choose to wait while they did the check to make sure I got refunded my money. They're breakfast was a joke... just cereal &amp; Leggo waffles, no real choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r589029929-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>589029929</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Great stay and great service and staff was very nice and helpful,they had a huge pool too with a great location because there is alot stuff to do around here,i will be coming back here again when I come to town in the middle of next month for a family evenr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r588786590-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>588786590</t>
+  </si>
+  <si>
+    <t>Stayed here over the weekend with the family...had an amazing stay..the staff was great. I need directions to places and they helped me out by printing out locations to the aces I wanted to go, food was great and the rooms are very clean</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r567911644-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>567911644</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>SERIOUS DISSATISFACTION</t>
+  </si>
+  <si>
+    <t>I reserved the room on line through the Wyndham portal and called ahead to inform the staff that I would be arriving late as my flight came in at 11:30 pm on Saturday night 17 March.  The staff informed me that although I had reserved the room, if I couldn't check in before 9 pm my reservation would be forfeited. I offered to prepay the room on the credit card with which I made the reservation but the staff firmly said if I don't arrive before 9 pm my room would be made available to another guest. Fortunately I had relatives on the ground in the Days Inn next door who could pay for the lodging in person. I arrived after midnight and did get my room, but if it had not been for my family in TX I could not have gotten the room.   MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I reserved the room on line through the Wyndham portal and called ahead to inform the staff that I would be arriving late as my flight came in at 11:30 pm on Saturday night 17 March.  The staff informed me that although I had reserved the room, if I couldn't check in before 9 pm my reservation would be forfeited. I offered to prepay the room on the credit card with which I made the reservation but the staff firmly said if I don't arrive before 9 pm my room would be made available to another guest. Fortunately I had relatives on the ground in the Days Inn next door who could pay for the lodging in person. I arrived after midnight and did get my room, but if it had not been for my family in TX I could not have gotten the room.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r564458271-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
     <t>564458271</t>
   </si>
   <si>
@@ -171,13 +282,7 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>teaves337866</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r562140776-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r562140776-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>562140776</t>
@@ -192,13 +297,7 @@
     <t>Upon entering my non smoking room we smelt smoke and then saw cigarette butts on the floor. So called management and they said oh no that's a non smoking room. The manager then proceeded to come check it out and just left it there and didn't apologize or offer a new room. Also sheets where stained second night.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Kenny H</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r540201091-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r540201091-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>540201091</t>
@@ -216,10 +315,43 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t>R6448DRricardop</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r514394363-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r532079830-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>532079830</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We would have give them better rating but the pool was closed despite them telling us it was open when we made reservations. Other than that, the stay was awesome. The staff were very friendly and really close to the Amusement Park Six Flags.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r530577152-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>530577152</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t>Very nice place</t>
+  </si>
+  <si>
+    <t>We stayed here for our anniversary and was within a 10 mile radius of everything we did. Nice place, would stay here again.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r514394363-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>514394363</t>
@@ -237,10 +369,7 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t>Courtney T</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r513205976-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r513205976-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>513205976</t>
@@ -252,10 +381,7 @@
     <t>had no issue when i stayed, great service, clean room, had a big pool for my children, and the staff was kind and friendly. i will be staying here from now on when i come and visit my family. great location because there are many things to do around here</t>
   </si>
   <si>
-    <t>angiev237</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r508116941-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r508116941-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>508116941</t>
@@ -264,19 +390,40 @@
     <t>08/02/2017</t>
   </si>
   <si>
-    <t>Family get away</t>
-  </si>
-  <si>
-    <t>We had a weekend trip to the Rangers game with the kids. We found Super 8 to be very friendly and accommodating. We will definitely stay here again when we take another trip to Arlington.</t>
-  </si>
-  <si>
     <t>July 2017</t>
   </si>
   <si>
-    <t>Timothy S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r495448373-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r503712456-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>503712456</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>business trip</t>
+  </si>
+  <si>
+    <t>The only issue I had was I booked a smoking t\room and my traveling companion cancelled so I changed the booking online to non smoking.  They were unaware at the desk that I had changed it and the room smelled horribly of smoke.  I can't fault them for that because I initially booked a smoking room.  My fault</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r498998063-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>498998063</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>Had a room here recently and the staff was friendly and nice, the rooms where great big and clean, beds were comfortable, and the breakfast was good. They had a big pool for my children to play in too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r495448373-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>495448373</t>
@@ -294,10 +441,7 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t>sroy2</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r484753895-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r484753895-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>484753895</t>
@@ -315,10 +459,7 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t>bruced205</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r482949419-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r482949419-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>482949419</t>
@@ -327,22 +468,34 @@
     <t>05/09/2017</t>
   </si>
   <si>
-    <t>Super8</t>
-  </si>
-  <si>
-    <t>Not a bad site, close to a lot of what's happening in South Arlington. Not close to the Ballpark or Cowboy Stadium.</t>
-  </si>
-  <si>
     <t>April 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Pedro M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r471427372-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r481238318-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>481238318</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r478881864-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>478881864</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>Six Flags overnight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We took a quick get-away to complete our Six Flags passes &amp; were looking for low cost only. The hotel exceeded our expectation in cleanliness &amp; location. We will stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r471427372-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>471427372</t>
@@ -360,10 +513,7 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t>Z5229JMchristines</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r471212077-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r471212077-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>471212077</t>
@@ -378,10 +528,7 @@
     <t>There was black mold in shower and on floor by toilet. There was a sign at check in that said if you ruin towels they would charge you. The pool was unusable.</t>
   </si>
   <si>
-    <t>Vero M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r470874292-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r470874292-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>470874292</t>
@@ -396,10 +543,31 @@
     <t>The check in and room was fast and great. The location was very close to a lot of eatery choices and a mall. I would recommend this hotel and location. Very comfy and quiet. :)</t>
   </si>
   <si>
-    <t>inct2017</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r468655832-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r470413481-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>470413481</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>Banks stay</t>
+  </si>
+  <si>
+    <t>Well my stay was very pleasurable. But the only thing I hate is the maids. The are very slick so pay attention to your stuff. But as far as that the manager is nice.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r469638726-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>469638726</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r468655832-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>468655832</t>
@@ -408,13 +576,7 @@
     <t>03/19/2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>P6555CZnancyc</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r462824755-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r462824755-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>462824755</t>
@@ -423,19 +585,10 @@
     <t>02/25/2017</t>
   </si>
   <si>
-    <t>Not Impressed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check in not a very good experience. Room not up to expectations. Had a weird odor. Bed was not made very well. Sheets not tucked tight. Pillows way too hard. Bed uncomfortable. Did not sleep well at all. Felt uncomfortable in room. Not a very secure feeling. </t>
-  </si>
-  <si>
     <t>February 2017</t>
   </si>
   <si>
-    <t>734remir</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r462084643-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r462084643-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>462084643</t>
@@ -444,10 +597,37 @@
     <t>02/22/2017</t>
   </si>
   <si>
-    <t>Q2502SLcatherineh</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r437937280-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r450132167-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>450132167</t>
+  </si>
+  <si>
+    <t>01/07/2017</t>
+  </si>
+  <si>
+    <t>WORST PLACE EVER. DONT COME HERE.</t>
+  </si>
+  <si>
+    <t>HORRIBLE. Bed had bed bugs. Room smelled like dog poo poo that has been rained on for days. Staff was very rude upon arrival, especially the bald guy, they used profanity when my children were present. Toilet had poop residue on the toilet seat and clogged toilet paper. Overall WORST PLACE EVER. SAVE YOUR MONEY and go down the street to Studio 6, much nicer facility and staff.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r440211136-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>440211136</t>
+  </si>
+  <si>
+    <t>11/26/2016</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r437937280-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>437937280</t>
@@ -462,13 +642,7 @@
     <t>The staff was very helpful and friendly and the room was very nice.  The water in the tub was hard to manage.</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
-    <t>mdw001</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r434444097-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r434444097-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>434444097</t>
@@ -486,10 +660,7 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t>Jeremy H</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r431669188-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r431669188-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>431669188</t>
@@ -504,10 +675,28 @@
     <t xml:space="preserve">The room had an odd odor. There was a dead roach in the middle of the floor. The king bed only had 3 pillows and when we asked for another we were told the office was closed and they couldn't help us until morning. </t>
   </si>
   <si>
-    <t>angelagF4303LK</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r418620919-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r428178917-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>428178917</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r425185268-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>425185268</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r418620919-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>418620919</t>
@@ -522,13 +711,7 @@
     <t xml:space="preserve">I've stayed at this hotel several times it's overall okay not the best but diffantly not the worst. </t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
-    <t>Russell R</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r416958481-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r416958481-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>416958481</t>
@@ -537,16 +720,7 @@
     <t>09/10/2016</t>
   </si>
   <si>
-    <t>Super 8 experience (Arlington, Tx)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I found the staff at this Super 8 hotel (Arlington, Tx) very helpful and courteous. I reserved a room with a king size bed and it was more than accommodating. I enjoyed my stay there very much, it was located close to the freeway (I-20) and main street (Cooper St) which is near downtown and both Globe Life and AT&amp;T stadiums (approx.6 miles).If visiting in the future, I would definitely stay at this hotel. </t>
-  </si>
-  <si>
-    <t>KAT C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r414069441-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r414069441-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>414069441</t>
@@ -561,10 +735,50 @@
     <t>Came in for a NFL preason football game and was on a budget...the room was fair- not fancy nor drastically outdated. I slept well, bed was not a cloud feeling but it took care of us for one night. Be prepared to put a $30 deposit and might have to ask for towels.</t>
   </si>
   <si>
-    <t>ZsH1313</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r364118032-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r405944323-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>405944323</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>Never, never, no never again</t>
+  </si>
+  <si>
+    <t>I used Priceline to book my room.  After calling several hotels in the area, and nothing available, I hesitantly took this room.  Upon arrival, I was told an additional $30 deposit was required.  There are several notices of warnings regarding damage to hotel property.  It was very late when we arrived.  Also, since I didn't want to give a cash deposit, I had to sign a blank credit card slip--which was potentially worse, I know.    At checkout, I asked for that slip and she said they'd have to look at the room first.  I told them to look because I needed the blank slip before I left.
+Our first room had stains on the comforter and a dried white substance on the headboard--it was NOT toothpaste.  We called the office.  I was asked if I needed a different room.  I replied..."or you can clean this one".  We got a new room.  2nd room had spilled milk on carpet near fridge and a booger on the wall.  I noticed this after he left. It was almost midnight and we were exhausted after driving all day to attend a funeral.  We were to tired to ask for another room.  They cleaned at the milk stain the next morning. But it's still there.   I tried cleaning the booger, but it was HARD!  I sprayed my tea tree and thieves spray every where.
+Breakfast was Eggo waffles, cereal, and some pastry of some sort....I used Priceline to book my room.  After calling several hotels in the area, and nothing available, I hesitantly took this room.  Upon arrival, I was told an additional $30 deposit was required.  There are several notices of warnings regarding damage to hotel property.  It was very late when we arrived.  Also, since I didn't want to give a cash deposit, I had to sign a blank credit card slip--which was potentially worse, I know.    At checkout, I asked for that slip and she said they'd have to look at the room first.  I told them to look because I needed the blank slip before I left.Our first room had stains on the comforter and a dried white substance on the headboard--it was NOT toothpaste.  We called the office.  I was asked if I needed a different room.  I replied..."or you can clean this one".  We got a new room.  2nd room had spilled milk on carpet near fridge and a booger on the wall.  I noticed this after he left. It was almost midnight and we were exhausted after driving all day to attend a funeral.  We were to tired to ask for another room.  They cleaned at the milk stain the next morning. But it's still there.   I tried cleaning the booger, but it was HARD!  I sprayed my tea tree and thieves spray every where.Breakfast was Eggo waffles, cereal, and some pastry of some sort.  Pretty bad.And, lastly, we had our curtain cracked a few inches to let light in, and when I went to close it to get ready, a man who works there, I believe, was staring into our window--not just a glance in, but stopped, turned toward window, and stared in.  I think he was shocked to see me just a few inches away and shut curtains as fast as I could.  Thankfully, that was our last morning there.I have to say the clerk at check in was nice, as was the man who was in the back behind the counter when I expressed my concerns about the milk (although I wonder if it was the same guy who peaked in our window)  I didn't want to be blamed, and he assured me I would not.  Thankfully that was the case.  The lady at check out was friendly ONLY after they inspected my room and returned my charge slip.  I'm no fan Super 8.  This place confirms why.  I hope I never have to consider staying at a Super 8.  MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>I used Priceline to book my room.  After calling several hotels in the area, and nothing available, I hesitantly took this room.  Upon arrival, I was told an additional $30 deposit was required.  There are several notices of warnings regarding damage to hotel property.  It was very late when we arrived.  Also, since I didn't want to give a cash deposit, I had to sign a blank credit card slip--which was potentially worse, I know.    At checkout, I asked for that slip and she said they'd have to look at the room first.  I told them to look because I needed the blank slip before I left.
+Our first room had stains on the comforter and a dried white substance on the headboard--it was NOT toothpaste.  We called the office.  I was asked if I needed a different room.  I replied..."or you can clean this one".  We got a new room.  2nd room had spilled milk on carpet near fridge and a booger on the wall.  I noticed this after he left. It was almost midnight and we were exhausted after driving all day to attend a funeral.  We were to tired to ask for another room.  They cleaned at the milk stain the next morning. But it's still there.   I tried cleaning the booger, but it was HARD!  I sprayed my tea tree and thieves spray every where.
+Breakfast was Eggo waffles, cereal, and some pastry of some sort....I used Priceline to book my room.  After calling several hotels in the area, and nothing available, I hesitantly took this room.  Upon arrival, I was told an additional $30 deposit was required.  There are several notices of warnings regarding damage to hotel property.  It was very late when we arrived.  Also, since I didn't want to give a cash deposit, I had to sign a blank credit card slip--which was potentially worse, I know.    At checkout, I asked for that slip and she said they'd have to look at the room first.  I told them to look because I needed the blank slip before I left.Our first room had stains on the comforter and a dried white substance on the headboard--it was NOT toothpaste.  We called the office.  I was asked if I needed a different room.  I replied..."or you can clean this one".  We got a new room.  2nd room had spilled milk on carpet near fridge and a booger on the wall.  I noticed this after he left. It was almost midnight and we were exhausted after driving all day to attend a funeral.  We were to tired to ask for another room.  They cleaned at the milk stain the next morning. But it's still there.   I tried cleaning the booger, but it was HARD!  I sprayed my tea tree and thieves spray every where.Breakfast was Eggo waffles, cereal, and some pastry of some sort.  Pretty bad.And, lastly, we had our curtain cracked a few inches to let light in, and when I went to close it to get ready, a man who works there, I believe, was staring into our window--not just a glance in, but stopped, turned toward window, and stared in.  I think he was shocked to see me just a few inches away and shut curtains as fast as I could.  Thankfully, that was our last morning there.I have to say the clerk at check in was nice, as was the man who was in the back behind the counter when I expressed my concerns about the milk (although I wonder if it was the same guy who peaked in our window)  I didn't want to be blamed, and he assured me I would not.  Thankfully that was the case.  The lady at check out was friendly ONLY after they inspected my room and returned my charge slip.  I'm no fan Super 8.  This place confirms why.  I hope I never have to consider staying at a Super 8.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r370978820-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>370978820</t>
+  </si>
+  <si>
+    <t>05/07/2016</t>
+  </si>
+  <si>
+    <t>Clean room - friendly staff - paper thin walls</t>
+  </si>
+  <si>
+    <t>The room was clean and well maintained. Bedding and bed was comfortable and clean. No issues with the Wifi and TV.  Seemed to be in a good location.The staff was super friendly.The only down side I came across was the walls are paper thin so I could hear from both rooms on either side of me conversation, music and well activity at 3am if you know what I mean unless they had a dog with them named baby.....</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r364118032-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>364118032</t>
@@ -579,16 +793,10 @@
     <t>This motel is nice and clean. Bed was acceptable to myself and my wife, which is saying something. It is located in a nice area. I would stay here again as it is an excellent value. And now, for the negatives. There was an ironing board but no iron. Not really a problem since we didn't need it. There really weren't enough towels. Only 2 bath towels, 2 hand towels, and 2 wash cloths. The towels were pretty soft for motel towels. Some of the furniture was worn but still functional. Don't let any of these "negatives" denture you from staying here. As I stated before I would stay here again because of the cleanliness and value. Disregard these minor negatives and  get some value for your money!MoreShow less</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
     <t>This motel is nice and clean. Bed was acceptable to myself and my wife, which is saying something. It is located in a nice area. I would stay here again as it is an excellent value. And now, for the negatives. There was an ironing board but no iron. Not really a problem since we didn't need it. There really weren't enough towels. Only 2 bath towels, 2 hand towels, and 2 wash cloths. The towels were pretty soft for motel towels. Some of the furniture was worn but still functional. Don't let any of these "negatives" denture you from staying here. As I stated before I would stay here again because of the cleanliness and value. Disregard these minor negatives and  get some value for your money!More</t>
   </si>
   <si>
-    <t>judymK6993GQ</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r358459511-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r358459511-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>358459511</t>
@@ -606,10 +814,7 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>michaelhC1887HU</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r348849158-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r348849158-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>348849158</t>
@@ -627,10 +832,34 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t>Tonya W</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r325321029-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r348675323-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>348675323</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r337276686-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>337276686</t>
+  </si>
+  <si>
+    <t>01/04/2016</t>
+  </si>
+  <si>
+    <t>Alabama Semi-Final Football Game</t>
+  </si>
+  <si>
+    <t>The rooms were very clean and neat. Clean smelling and plenty of room with microwave, refrigerator, and coffee maker. Would definitely stay here again if ever in Arlington.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r325321029-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>325321029</t>
@@ -648,10 +877,7 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>420kerryh</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r320492899-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r320492899-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>320492899</t>
@@ -660,10 +886,7 @@
     <t>10/20/2015</t>
   </si>
   <si>
-    <t>514jackp</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r296988375-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r296988375-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>296988375</t>
@@ -681,10 +904,43 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t>Glen T</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r269797133-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r283320722-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>283320722</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t>Not a bad stay</t>
+  </si>
+  <si>
+    <t>Driving from Atlanta to Roswell N.M. we needed a room for the night.  This was the only place that we found that was 1. Under 100 and 2. Not sold out.   The room is very spacious, clean what we needed.   The only things I found ridiculous were the signs posted saying "only consume continental breakfast in dining area" and "there will be a charge for hevily soiled linens, ie: make up on washcloths"</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r282816060-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>282816060</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>Room ammenties</t>
+  </si>
+  <si>
+    <t>The issues I personally observed no iron in the room, ceiling looked like there was water damage. The room was clean, high marks for the refrigerator, it was cold and the freezer portion was actually cold enough to freeze some food items. The AC worked great and the television came with a channel guide so I wasn't spending hrs to find the stations. The staff was very friendly and cordial. The only problem I had was there was no iron in the room. I  asked for one when I checked in, Thursday. I asked again on Friday, Saturday and I never received one the entire stay. That was pretty much the only complaint I have about my stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>The issues I personally observed no iron in the room, ceiling looked like there was water damage. The room was clean, high marks for the refrigerator, it was cold and the freezer portion was actually cold enough to freeze some food items. The AC worked great and the television came with a channel guide so I wasn't spending hrs to find the stations. The staff was very friendly and cordial. The only problem I had was there was no iron in the room. I  asked for one when I checked in, Thursday. I asked again on Friday, Saturday and I never received one the entire stay. That was pretty much the only complaint I have about my stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r269797133-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>269797133</t>
@@ -702,10 +958,7 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>TravelJ47</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r267184293-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r267184293-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>267184293</t>
@@ -720,16 +973,10 @@
     <t>Judging by the name would lead one to think this is a low end facility for a quick nights stay...I was proven wrong..I work in the hotel industry so I know the importance of great customer service I received nothing less..the from desk agent was polite helpful and very understanding 4 young girls in a new state and we were treated as if we stay all the time..the room was very clean and exactly as described on the website..the cleaning ladies where on task at all times rooms were cleaned and when asked not to the respected our wishes... Not sure who the older gentleman was cleaning the parking lot but he was very attentive as well never disturbing our stay but meeting request on demand they even had forks when we forgot late night always fresh towels and no problem receiving deposit back the only thing I regret is not having enough time to enjoy the outdoor pool which im sure I would have overall my stay was nice I got the comfort and privacy I paid for thanks again Super 8 ...MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Judging by the name would lead one to think this is a low end facility for a quick nights stay...I was proven wrong..I work in the hotel industry so I know the importance of great customer service I received nothing less..the from desk agent was polite helpful and very understanding 4 young girls in a new state and we were treated as if we stay all the time..the room was very clean and exactly as described on the website..the cleaning ladies where on task at all times rooms were cleaned and when asked not to the respected our wishes... Not sure who the older gentleman was cleaning the parking lot but he was very attentive as well never disturbing our stay but meeting request on demand they even had forks when we forgot late night always fresh towels and no problem receiving deposit back the only thing I regret is not having enough time to enjoy the outdoor pool which im sure I would have overall my stay was nice I got the comfort and privacy I paid for thanks again Super 8 ...More</t>
   </si>
   <si>
-    <t>Brandon S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r265771071-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r265771071-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>265771071</t>
@@ -747,10 +994,40 @@
     <t>Pulled up to check in and the lobby is locked and closed. Had to transact through bullet proof window. Red flag #1.  Finally got through to the guy that I booked on rewards points and that I have a reservation. He then asked for a credit card to put on file in case I trash the room for "incidentals", red flag #2. Finally get checked in and get back out to the car and there are shady people walking around all outside smoking and half naked. #3... I had already seen enough and we decided to chalk up the point loss and find another place to stay and lo and behold we pass several ladies dressed scantily....#4. Didn't even make it to the room. Now I work in the oilfields and am gone and staying in hotels often, so I see things. But I would never stay at this hotel nor subject my family to it. God, and those hookers, only know what those rooms were like. Patron beware. PS, I can only imagine that "incidentals" meant if I get spludge on the sheets after banging one of those fine ladies.More</t>
   </si>
   <si>
-    <t>Loren H</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r256163623-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r261340735-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>261340735</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>The room was comfortable except we seemed to have something...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was comfortable except we seemed to have something "biting" us at times throughout the p.m. The bathroom floor could have been swept a little better; I noticed a few clothing "tags" still on the floor from a previous guest. Also, the "guests" next door seemed to be "enjoying" their stay to the point that they were disturbing our rest. Thankfully, they stayed only one p.m. &amp; we stayed 2 additional nights after. </t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r258162648-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>258162648</t>
+  </si>
+  <si>
+    <t>03/06/2015</t>
+  </si>
+  <si>
+    <t>Excellent value</t>
+  </si>
+  <si>
+    <t>The room was clean, and the microwave, refrigerator and coffeemaker all worked perfectly. My ground floor room was quiet. The bed was very comfortable. However, one of the pillows smelled like tobacco smoke in spite of clean bed linens.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r256163623-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>256163623</t>
@@ -765,10 +1042,7 @@
     <t>Considerate and helpful staff, clean pet-friendly room, and good value. I stayed several nights and found the professionalism of the staff to be consistent. An added benefit is the hotel's proximity to restaurants and shopping. I will definitely stay again. MAJ Hutsell.</t>
   </si>
   <si>
-    <t>Melvin J</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r250101493-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r250101493-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>250101493</t>
@@ -786,10 +1060,7 @@
     <t>More</t>
   </si>
   <si>
-    <t>deniseo748</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r249021299-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r249021299-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>249021299</t>
@@ -804,10 +1075,28 @@
     <t>Overall room and bathroom were clean and comfortable, although I observed a couple minor issues 1) roll of toilet paper was almost exhausted and there wasn't a spare roll; 2) TV remote did not work properly and 3) when the rooms are cleaned, I guess they don't check the nightstand drawer (there were 3 unopened condoms in the same drawer as the Gideon Bible)</t>
   </si>
   <si>
-    <t>Bernard M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r232147318-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r245698909-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>245698909</t>
+  </si>
+  <si>
+    <t>12/23/2014</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r243322149-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>243322149</t>
+  </si>
+  <si>
+    <t>12/07/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r232147318-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>232147318</t>
@@ -825,10 +1114,7 @@
     <t>September 2014</t>
   </si>
   <si>
-    <t>Brenda T</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r226478652-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r226478652-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>226478652</t>
@@ -840,10 +1126,7 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>Army_Sarah</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r223400092-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r223400092-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>223400092</t>
@@ -861,10 +1144,28 @@
     <t>I stayed her for OTJ training. The company paid for it. For being a lower end type of motel, it's not bad. The A/C works great! The room and the exterior were clean. I saw the staff walking around picking up trash. The housekeeping came in and cleaned the room while I was out during the day. There's a very slight odorous to the room but not a big deal.The bed is a little too hard for my taste, but I did sleep well. The TV is an older one and the breakfast was just honey buns and cereal. Overall, I don't have any major complaints. But then again, I didn't pay for it. It is close to fast food restaurants and gas stations, as well as to the mall and the interstate.More</t>
   </si>
   <si>
-    <t>Teresa R</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r212814599-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r221693898-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>221693898</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r216828572-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>216828572</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r212814599-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>212814599</t>
@@ -882,10 +1183,7 @@
     <t>June 2014</t>
   </si>
   <si>
-    <t>Jaime V</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r212222427-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r212222427-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>212222427</t>
@@ -894,10 +1192,7 @@
     <t>06/26/2014</t>
   </si>
   <si>
-    <t>Reza A</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r207034053-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r207034053-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>207034053</t>
@@ -909,10 +1204,34 @@
     <t>May 2014</t>
   </si>
   <si>
-    <t>Diana C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r193195891-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r201327808-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>201327808</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>Upgrades needed!</t>
+  </si>
+  <si>
+    <t>The location is great but the rooms need a major touch up. The tvs are outdated and do not have many channels. The beds were comfortable but the location had no suites. You have to ask for extra towels even if you book several people. You still have ask for enough not more but enough towels</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r200646030-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>200646030</t>
+  </si>
+  <si>
+    <t>04/10/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r193195891-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>193195891</t>
@@ -924,10 +1243,7 @@
     <t>January 2014</t>
   </si>
   <si>
-    <t>Denny W</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r186485719-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r186485719-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>186485719</t>
@@ -939,10 +1255,7 @@
     <t>November 2013</t>
   </si>
   <si>
-    <t>John S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r183594460-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r183594460-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>183594460</t>
@@ -954,10 +1267,31 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t>Jonathan V</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r175640320-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r181311790-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>181311790</t>
+  </si>
+  <si>
+    <t>10/16/2013</t>
+  </si>
+  <si>
+    <t>enjoyed my stay ...</t>
+  </si>
+  <si>
+    <t>My buddies and I stayed for the Broncos game and this place was nice to stay at the airport was just a few miles away took around 10 minutes to get to. The service and location were great. Mike at the hotel took care of our transportation and printed directions for us. I would recommend booking ahead of time if you heading to this place. The rooms were nice however the fridge was too small for us since we came for the game and had several people with us.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r177116122-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>177116122</t>
+  </si>
+  <si>
+    <t>09/14/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r175640320-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>175640320</t>
@@ -966,10 +1300,7 @@
     <t>09/03/2013</t>
   </si>
   <si>
-    <t>Staci U</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r172108769-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r172108769-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>172108769</t>
@@ -981,10 +1312,7 @@
     <t>August 2013</t>
   </si>
   <si>
-    <t>Angela M</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r168762658-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r168762658-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>168762658</t>
@@ -1002,10 +1330,37 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t>mullerj772</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r162032422-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r167236209-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>167236209</t>
+  </si>
+  <si>
+    <t>07/11/2013</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>First of all we arrived in Arlington on a whim 4th of July weekend, so finding a hotel was near impossible.  Super 8 said they had 1 room available non smoking I grabbed it.  I asked if they had WiFi gentleman assured me they did.  Get to the room it was something out of the 80's but clean. I unpacked my car got comfy in the room try to use WiFi and nothing.  I even stood outside my room and nothing so I called the office he said it was my phone.  So I went back in my room tried my laptop, iPad, iphone and HTC EVO nothing although it said I was connected. I called the office again and he said come to the office he wanted to see for himself, so I went to the office and guess what it worked in the office, so I headed back to the room and right at the stairs my devices stated no connection.  I stayed in room 216, so I asked if I can change rooms they insisted they had no more.  Meanwhile New guests checked in for the night.  Disappointed.  I ended up going to best western and asking to usr their WiFi and they were gracious enough to allow me to use it.  Overall stay ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>First of all we arrived in Arlington on a whim 4th of July weekend, so finding a hotel was near impossible.  Super 8 said they had 1 room available non smoking I grabbed it.  I asked if they had WiFi gentleman assured me they did.  Get to the room it was something out of the 80's but clean. I unpacked my car got comfy in the room try to use WiFi and nothing.  I even stood outside my room and nothing so I called the office he said it was my phone.  So I went back in my room tried my laptop, iPad, iphone and HTC EVO nothing although it said I was connected. I called the office again and he said come to the office he wanted to see for himself, so I went to the office and guess what it worked in the office, so I headed back to the room and right at the stairs my devices stated no connection.  I stayed in room 216, so I asked if I can change rooms they insisted they had no more.  Meanwhile New guests checked in for the night.  Disappointed.  I ended up going to best western and asking to usr their WiFi and they were gracious enough to allow me to use it.  Overall stay ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r164930378-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>164930378</t>
+  </si>
+  <si>
+    <t>06/23/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r162032422-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>162032422</t>
@@ -1023,10 +1378,7 @@
     <t>May 2013</t>
   </si>
   <si>
-    <t>Donald G</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r142808634-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r142808634-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>142808634</t>
@@ -1044,10 +1396,7 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>DEBORAH P</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r142627580-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r142627580-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>142627580</t>
@@ -1056,10 +1405,55 @@
     <t>10/12/2012</t>
   </si>
   <si>
-    <t>chalcat</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r119200613-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r129862899-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>129862899</t>
+  </si>
+  <si>
+    <t>05/13/2012</t>
+  </si>
+  <si>
+    <t>I WILL BE BACK</t>
+  </si>
+  <si>
+    <t>I travel on a regular basis for business but this was my first Super 8 experience and I have to say I was VERY happy with the entire experience. I am a Diamond member and typically stay at the Hampton or Hilton but due to the Texas Rangers game that was a no go. And to be totally honest it was for the best. The front office staff was very friendly and made me feel welcome right away. I arrived a little early from a long drive and they made sure getting my Suite ready asap was a priority. The room was very clean the the service exceptional. People Like Jan Patel and her exceptional staff are what keep customers coming back. I really can't comment on the free breakfast due to the fact that the location is so great I had La Madelline right down the street. All in all Thank you for great stay and I will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I travel on a regular basis for business but this was my first Super 8 experience and I have to say I was VERY happy with the entire experience. I am a Diamond member and typically stay at the Hampton or Hilton but due to the Texas Rangers game that was a no go. And to be totally honest it was for the best. The front office staff was very friendly and made me feel welcome right away. I arrived a little early from a long drive and they made sure getting my Suite ready asap was a priority. The room was very clean the the service exceptional. People Like Jan Patel and her exceptional staff are what keep customers coming back. I really can't comment on the free breakfast due to the fact that the location is so great I had La Madelline right down the street. All in all Thank you for great stay and I will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r124530291-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>124530291</t>
+  </si>
+  <si>
+    <t>02/13/2012</t>
+  </si>
+  <si>
+    <t>Unbelievable Terrible!</t>
+  </si>
+  <si>
+    <t>I made reservations online with Super 8 motel on Pleasant Ridge Drive in Arlington,TX. to spend 2 nights while we were visiting our kids and grand kids for the weekend on Feb.10th &amp; 11th, 2012. We got to the motel and unloaded our bags and then left to go see our kids. We got back to the motel around 9:00 pm. My husband lay on the bed and watched television while I got ready for bed. He noticed that the sheet and bedspread had a cigarette burn and I don't think the bedspread was clean at all. We're not real picky as long as it's clean and it seemed clean enough, so we just ignored it since it was late and we were tired. I got ready for bed and slid in to bed. I yelled and told my husband something scratched me. It left a scratch on the back of my leg. I felt around and could feel the spring sticking out of the mattress. Again, it was late and we were tired so we just made the best of it. The mattress must have been 30 years old. It felt like sleeping on springs. Like one of the other reviewers pointed out the pillows were flatter than pancakes. They too must have been very old. The next morning I pulled the sheet back to see exactly what had scratched me and there was a wire sticking out of...I made reservations online with Super 8 motel on Pleasant Ridge Drive in Arlington,TX. to spend 2 nights while we were visiting our kids and grand kids for the weekend on Feb.10th &amp; 11th, 2012. We got to the motel and unloaded our bags and then left to go see our kids. We got back to the motel around 9:00 pm. My husband lay on the bed and watched television while I got ready for bed. He noticed that the sheet and bedspread had a cigarette burn and I don't think the bedspread was clean at all. We're not real picky as long as it's clean and it seemed clean enough, so we just ignored it since it was late and we were tired. I got ready for bed and slid in to bed. I yelled and told my husband something scratched me. It left a scratch on the back of my leg. I felt around and could feel the spring sticking out of the mattress. Again, it was late and we were tired so we just made the best of it. The mattress must have been 30 years old. It felt like sleeping on springs. Like one of the other reviewers pointed out the pillows were flatter than pancakes. They too must have been very old. The next morning I pulled the sheet back to see exactly what had scratched me and there was a wire sticking out of the mattress. We made our mind up we we're moving no matter what. We went to the office to tell them and I had taken a picture of the wire and showed it to the lady in the office. Her comment was "The maid wouldn't have done that". I said "Well, she did because we didn't do it". She said that we have to let them know of any problem with the room within 10 min. of checking in and pointed to a sign at the desk stating this. I guess they expect you to strip the bed and check the mattress within 10 min. I ask for our money back but no way was that going to happen. She did give us a refund for the night we didn't use and we went to the Holiday Inn Express right down the street. It was like the difference in night and day. Like I said, we're not picky and will put up with a lot but this was ridiculous. One more thing. We thought we might eat their free continental breakfast since we had paid for it. All they had were some store bought rolls in a package and maybe cold cereal.I am also going to contact their corporate office. This should not be a Super 8 motel. I am going to post the pictures of the mattress and the burned sheet &amp; bedspread.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>pateljan, Manager at Super 8 by Wyndham Arlington East, responded to this reviewResponded April 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2012</t>
+  </si>
+  <si>
+    <t>I made reservations online with Super 8 motel on Pleasant Ridge Drive in Arlington,TX. to spend 2 nights while we were visiting our kids and grand kids for the weekend on Feb.10th &amp; 11th, 2012. We got to the motel and unloaded our bags and then left to go see our kids. We got back to the motel around 9:00 pm. My husband lay on the bed and watched television while I got ready for bed. He noticed that the sheet and bedspread had a cigarette burn and I don't think the bedspread was clean at all. We're not real picky as long as it's clean and it seemed clean enough, so we just ignored it since it was late and we were tired. I got ready for bed and slid in to bed. I yelled and told my husband something scratched me. It left a scratch on the back of my leg. I felt around and could feel the spring sticking out of the mattress. Again, it was late and we were tired so we just made the best of it. The mattress must have been 30 years old. It felt like sleeping on springs. Like one of the other reviewers pointed out the pillows were flatter than pancakes. They too must have been very old. The next morning I pulled the sheet back to see exactly what had scratched me and there was a wire sticking out of...I made reservations online with Super 8 motel on Pleasant Ridge Drive in Arlington,TX. to spend 2 nights while we were visiting our kids and grand kids for the weekend on Feb.10th &amp; 11th, 2012. We got to the motel and unloaded our bags and then left to go see our kids. We got back to the motel around 9:00 pm. My husband lay on the bed and watched television while I got ready for bed. He noticed that the sheet and bedspread had a cigarette burn and I don't think the bedspread was clean at all. We're not real picky as long as it's clean and it seemed clean enough, so we just ignored it since it was late and we were tired. I got ready for bed and slid in to bed. I yelled and told my husband something scratched me. It left a scratch on the back of my leg. I felt around and could feel the spring sticking out of the mattress. Again, it was late and we were tired so we just made the best of it. The mattress must have been 30 years old. It felt like sleeping on springs. Like one of the other reviewers pointed out the pillows were flatter than pancakes. They too must have been very old. The next morning I pulled the sheet back to see exactly what had scratched me and there was a wire sticking out of the mattress. We made our mind up we we're moving no matter what. We went to the office to tell them and I had taken a picture of the wire and showed it to the lady in the office. Her comment was "The maid wouldn't have done that". I said "Well, she did because we didn't do it". She said that we have to let them know of any problem with the room within 10 min. of checking in and pointed to a sign at the desk stating this. I guess they expect you to strip the bed and check the mattress within 10 min. I ask for our money back but no way was that going to happen. She did give us a refund for the night we didn't use and we went to the Holiday Inn Express right down the street. It was like the difference in night and day. Like I said, we're not picky and will put up with a lot but this was ridiculous. One more thing. We thought we might eat their free continental breakfast since we had paid for it. All they had were some store bought rolls in a package and maybe cold cereal.I am also going to contact their corporate office. This should not be a Super 8 motel. I am going to post the pictures of the mattress and the burned sheet &amp; bedspread.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r119200613-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>119200613</t>
@@ -1077,10 +1471,7 @@
     <t>September 2011</t>
   </si>
   <si>
-    <t>Stevenneilsen</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r115944387-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r115944387-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>115944387</t>
@@ -1098,10 +1489,7 @@
     <t>Today was an unbeliveable day. My girlfriend and i are in the process of moving. Power mistakenly got cut off a month ahead of schedule. So upon hours upon hours they realize there mistake and promise to have power on. Well never happend. And bein texas weather as it is, no ac had to go some where cool. So my gf and i was one day away from being paid, so she borrowed money from her mom, and a friend 68 In all as was the price of room. She checks in, we shower as were sooooo hot from being in hot sun all day, the office then calls the room and says they need a 20 $ Deposite. Well we didnt have it. Asked if they could wait till midnight and run the debit card, said no and we had to leave. And no refund. So the 68 That they charged for room they kept. No refund policcy. My gf mom called there from ny to ask for manager and complain and each time they hung up on her. So here we had to go back to the hot apt, deal with the elec company, and on top of that she had to call into work. So be alert. Go else where.More</t>
   </si>
   <si>
-    <t>Richard75686</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r12050513-Super_8_Arlington_East-Arlington_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d268278-r12050513-Super_8_by_Wyndham_Arlington_East-Arlington_Texas.html</t>
   </si>
   <si>
     <t>12050513</t>
@@ -1621,125 +2009,122 @@
       <c r="A2" t="n">
         <v>42427</v>
       </c>
-      <c r="B2" t="n">
-        <v>178373</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>42427</v>
       </c>
-      <c r="B3" t="n">
-        <v>178374</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
         <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1747,100 +2132,86 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>42427</v>
       </c>
-      <c r="B4" t="n">
-        <v>88977</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>42427</v>
       </c>
-      <c r="B5" t="n">
-        <v>178375</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
         <v>68</v>
@@ -1855,30 +2226,20 @@
         <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
         <v>72</v>
       </c>
-      <c r="O5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -1892,128 +2253,116 @@
       <c r="A6" t="n">
         <v>42427</v>
       </c>
-      <c r="B6" t="n">
-        <v>178376</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
         <v>73</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
         <v>74</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" t="s">
-        <v>77</v>
-      </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>42427</v>
       </c>
-      <c r="B7" t="n">
-        <v>178377</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s">
         <v>79</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>80</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>81</v>
       </c>
-      <c r="K7" t="s">
+      <c r="O7" t="s">
         <v>82</v>
       </c>
-      <c r="L7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>84</v>
-      </c>
-      <c r="O7" t="s">
-        <v>58</v>
-      </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -2028,130 +2377,120 @@
       <c r="A8" t="n">
         <v>42427</v>
       </c>
-      <c r="B8" t="n">
-        <v>5098</v>
-      </c>
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
         <v>86</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>87</v>
       </c>
-      <c r="J8" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>91</v>
-      </c>
       <c r="O8" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
-      <c r="Y8" t="s">
-        <v>90</v>
-      </c>
+      <c r="Y8" t="s"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>42427</v>
       </c>
-      <c r="B9" t="n">
-        <v>178378</v>
-      </c>
-      <c r="C9" t="s">
-        <v>92</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="O9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
       <c r="Q9" t="n">
         <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2159,70 +2498,62 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>42427</v>
       </c>
-      <c r="B10" t="n">
-        <v>178379</v>
-      </c>
-      <c r="C10" t="s">
-        <v>99</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O10" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -2230,55 +2561,47 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>42427</v>
       </c>
-      <c r="B11" t="n">
-        <v>178380</v>
-      </c>
-      <c r="C11" t="s">
-        <v>107</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>113</v>
-      </c>
-      <c r="O11" t="s">
-        <v>58</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
@@ -2291,70 +2614,66 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>42427</v>
       </c>
-      <c r="B12" t="n">
-        <v>178381</v>
-      </c>
-      <c r="C12" t="s">
-        <v>114</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O12" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2362,70 +2681,66 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>42427</v>
       </c>
-      <c r="B13" t="n">
-        <v>178382</v>
-      </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2433,192 +2748,181 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>42427</v>
       </c>
-      <c r="B14" t="n">
-        <v>178383</v>
-      </c>
-      <c r="C14" t="s">
-        <v>126</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
-      </c>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="K14" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14" t="s">
+        <v>120</v>
+      </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O14" t="s">
-        <v>130</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
       <c r="R14" t="n">
-        <v>3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>42427</v>
       </c>
-      <c r="B15" t="n">
-        <v>178384</v>
-      </c>
-      <c r="C15" t="s">
-        <v>131</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
-      </c>
-      <c r="K15" t="s">
-        <v>135</v>
-      </c>
-      <c r="L15" t="s">
-        <v>136</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="O15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R15" t="n">
         <v>4</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
-      <c r="Y15" t="s">
-        <v>136</v>
-      </c>
+      <c r="Y15" t="s"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>42427</v>
       </c>
-      <c r="B16" t="n">
-        <v>178385</v>
-      </c>
-      <c r="C16" t="s">
-        <v>138</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
-      </c>
-      <c r="K16" t="s"/>
-      <c r="L16" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="K16" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" t="s">
+        <v>129</v>
+      </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="O16" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
         <v>3</v>
@@ -2630,62 +2934,59 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>42427</v>
       </c>
-      <c r="B17" t="n">
-        <v>178386</v>
-      </c>
-      <c r="C17" t="s">
-        <v>142</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="J17" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="K17" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="L17" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="O17" t="s">
-        <v>58</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="n">
         <v>5</v>
       </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="n">
         <v>5</v>
       </c>
@@ -2699,66 +3000,62 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>42427</v>
       </c>
-      <c r="B18" t="n">
-        <v>178387</v>
-      </c>
-      <c r="C18" t="s">
-        <v>149</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="K18" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="L18" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="O18" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
         <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
@@ -2770,124 +3067,118 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>42427</v>
       </c>
-      <c r="B19" t="n">
-        <v>24613</v>
-      </c>
-      <c r="C19" t="s">
-        <v>156</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="L19" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="O19" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>42427</v>
       </c>
-      <c r="B20" t="n">
-        <v>178388</v>
-      </c>
-      <c r="C20" t="s">
-        <v>162</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="J20" t="s">
-        <v>165</v>
-      </c>
-      <c r="K20" t="s">
-        <v>166</v>
-      </c>
-      <c r="L20" t="s">
-        <v>167</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="O20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S20" t="n">
         <v>3</v>
@@ -2901,274 +3192,250 @@
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
-      <c r="Y20" t="s">
-        <v>167</v>
-      </c>
+      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>42427</v>
       </c>
-      <c r="B21" t="n">
-        <v>10100</v>
-      </c>
-      <c r="C21" t="s">
-        <v>169</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="J21" t="s">
-        <v>172</v>
-      </c>
-      <c r="K21" t="s">
-        <v>173</v>
-      </c>
-      <c r="L21" t="s">
-        <v>174</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="O21" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
         <v>5</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
-      <c r="Y21" t="s">
-        <v>174</v>
-      </c>
+      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>42427</v>
       </c>
-      <c r="B22" t="n">
-        <v>178389</v>
-      </c>
-      <c r="C22" t="s">
-        <v>175</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="J22" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K22" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="L22" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="O22" t="s">
-        <v>58</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>42427</v>
       </c>
-      <c r="B23" t="n">
-        <v>178390</v>
-      </c>
-      <c r="C23" t="s">
-        <v>181</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="K23" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="L23" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="O23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>42427</v>
       </c>
-      <c r="B24" t="n">
-        <v>178391</v>
-      </c>
-      <c r="C24" t="s">
-        <v>189</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="J24" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="K24" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="L24" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="O24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
         <v>3</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3176,70 +3443,66 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>42427</v>
       </c>
-      <c r="B25" t="n">
-        <v>178392</v>
-      </c>
-      <c r="C25" t="s">
-        <v>196</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="J25" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="K25" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="L25" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="O25" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="P25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3247,331 +3510,308 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>42427</v>
       </c>
-      <c r="B26" t="n">
-        <v>178393</v>
-      </c>
-      <c r="C26" t="s">
-        <v>203</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="J26" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="K26" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="L26" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="O26" t="s">
-        <v>106</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>42427</v>
       </c>
-      <c r="B27" t="n">
-        <v>178394</v>
-      </c>
-      <c r="C27" t="s">
-        <v>210</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="J27" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="O27" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R27" t="n">
         <v>5</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>42427</v>
       </c>
-      <c r="B28" t="n">
-        <v>178395</v>
-      </c>
-      <c r="C28" t="s">
-        <v>214</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="J28" t="s">
-        <v>217</v>
-      </c>
-      <c r="K28" t="s">
-        <v>218</v>
-      </c>
-      <c r="L28" t="s">
-        <v>219</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="O28" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
         <v>3</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
-      <c r="Y28" t="s">
-        <v>219</v>
-      </c>
+      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>42427</v>
       </c>
-      <c r="B29" t="n">
-        <v>178396</v>
-      </c>
-      <c r="C29" t="s">
-        <v>221</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="J29" t="s">
-        <v>224</v>
-      </c>
-      <c r="K29" t="s">
-        <v>225</v>
-      </c>
-      <c r="L29" t="s">
-        <v>226</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="O29" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="P29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="n">
         <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
-      <c r="Y29" t="s">
-        <v>226</v>
-      </c>
+      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>42427</v>
       </c>
-      <c r="B30" t="n">
-        <v>178397</v>
-      </c>
-      <c r="C30" t="s">
-        <v>228</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="J30" t="s">
-        <v>231</v>
-      </c>
-      <c r="K30" t="s">
-        <v>232</v>
-      </c>
-      <c r="L30" t="s">
-        <v>233</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="O30" t="s">
-        <v>234</v>
+        <v>72</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
         <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -3582,55 +3822,49 @@
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
-      <c r="Y30" t="s">
-        <v>235</v>
-      </c>
+      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>42427</v>
       </c>
-      <c r="B31" t="n">
-        <v>20626</v>
-      </c>
-      <c r="C31" t="s">
-        <v>236</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="J31" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="K31" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="L31" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="O31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3644,135 +3878,127 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>42427</v>
       </c>
-      <c r="B32" t="n">
-        <v>101810</v>
-      </c>
-      <c r="C32" t="s">
-        <v>243</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="J32" t="s">
-        <v>246</v>
-      </c>
-      <c r="K32" t="s">
-        <v>247</v>
-      </c>
-      <c r="L32" t="s">
-        <v>248</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
       <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>202</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
-      <c r="Y32" t="s">
-        <v>248</v>
-      </c>
+      <c r="Y32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>42427</v>
       </c>
-      <c r="B33" t="n">
-        <v>39902</v>
-      </c>
-      <c r="C33" t="s">
-        <v>249</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="J33" t="s">
-        <v>252</v>
-      </c>
-      <c r="K33" t="s"/>
+        <v>205</v>
+      </c>
+      <c r="K33" t="s">
+        <v>206</v>
+      </c>
       <c r="L33" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="O33" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3780,70 +4006,66 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>42427</v>
       </c>
-      <c r="B34" t="n">
-        <v>178398</v>
-      </c>
-      <c r="C34" t="s">
-        <v>256</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="J34" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="K34" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="L34" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="O34" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="P34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
         <v>3</v>
       </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3851,121 +4073,103 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>42427</v>
       </c>
-      <c r="B35" t="n">
-        <v>89474</v>
-      </c>
-      <c r="C35" t="s">
-        <v>262</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="J35" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="K35" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="L35" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="O35" t="s">
-        <v>58</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
-        <v>3</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>1</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>42427</v>
       </c>
-      <c r="B36" t="n">
-        <v>24107</v>
-      </c>
-      <c r="C36" t="s">
-        <v>269</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="J36" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="O36" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3986,119 +4190,112 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>42427</v>
       </c>
-      <c r="B37" t="n">
-        <v>178399</v>
-      </c>
-      <c r="C37" t="s">
-        <v>274</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>275</v>
+        <v>222</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="J37" t="s">
-        <v>277</v>
-      </c>
-      <c r="K37" t="s">
-        <v>278</v>
-      </c>
-      <c r="L37" t="s">
-        <v>279</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="O37" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="P37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q37" t="n">
-        <v>3</v>
-      </c>
-      <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
-      <c r="Y37" t="s">
-        <v>280</v>
-      </c>
+      <c r="Y37" t="s"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>42427</v>
       </c>
-      <c r="B38" t="n">
-        <v>23047</v>
-      </c>
-      <c r="C38" t="s">
-        <v>281</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="J38" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="K38" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="L38" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="O38" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4114,7 +4311,7 @@
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4122,311 +4319,294 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>42427</v>
       </c>
-      <c r="B39" t="n">
-        <v>178400</v>
-      </c>
-      <c r="C39" t="s">
-        <v>288</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="J39" t="s">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="K39" t="s"/>
-      <c r="L39" t="s">
-        <v>253</v>
-      </c>
+      <c r="L39" t="s"/>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="O39" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="P39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
-      <c r="Y39" t="s">
-        <v>255</v>
-      </c>
+      <c r="Y39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>42427</v>
       </c>
-      <c r="B40" t="n">
-        <v>178401</v>
-      </c>
-      <c r="C40" t="s">
-        <v>292</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="J40" t="s">
-        <v>295</v>
-      </c>
-      <c r="K40" t="s"/>
-      <c r="L40" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="K40" t="s">
+        <v>237</v>
+      </c>
+      <c r="L40" t="s">
+        <v>238</v>
+      </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>296</v>
+        <v>225</v>
       </c>
       <c r="O40" t="s">
-        <v>58</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>1</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>42427</v>
       </c>
-      <c r="B41" t="n">
-        <v>57864</v>
-      </c>
-      <c r="C41" t="s">
-        <v>297</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>298</v>
+        <v>239</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>299</v>
+        <v>240</v>
       </c>
       <c r="J41" t="s">
-        <v>300</v>
-      </c>
-      <c r="K41" t="s"/>
-      <c r="L41" t="s"/>
+        <v>241</v>
+      </c>
+      <c r="K41" t="s">
+        <v>242</v>
+      </c>
+      <c r="L41" t="s">
+        <v>243</v>
+      </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="O41" t="s">
-        <v>130</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>42427</v>
       </c>
-      <c r="B42" t="n">
-        <v>76523</v>
-      </c>
-      <c r="C42" t="s">
-        <v>302</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>303</v>
+        <v>246</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="J42" t="s">
-        <v>305</v>
-      </c>
-      <c r="K42" t="s"/>
-      <c r="L42" t="s"/>
+        <v>248</v>
+      </c>
+      <c r="K42" t="s">
+        <v>249</v>
+      </c>
+      <c r="L42" t="s">
+        <v>250</v>
+      </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="O42" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q42" t="s"/>
       <c r="R42" t="n">
-        <v>3</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>42427</v>
       </c>
-      <c r="B43" t="n">
-        <v>6540</v>
-      </c>
-      <c r="C43" t="s">
-        <v>307</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="J43" t="s">
-        <v>310</v>
-      </c>
-      <c r="K43" t="s"/>
-      <c r="L43" t="s"/>
+        <v>254</v>
+      </c>
+      <c r="K43" t="s">
+        <v>255</v>
+      </c>
+      <c r="L43" t="s">
+        <v>256</v>
+      </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="O43" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
         <v>5</v>
@@ -4441,176 +4621,183 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>42427</v>
       </c>
-      <c r="B44" t="n">
-        <v>178402</v>
-      </c>
-      <c r="C44" t="s">
-        <v>312</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="J44" t="s">
-        <v>315</v>
-      </c>
-      <c r="K44" t="s"/>
-      <c r="L44" t="s"/>
+        <v>260</v>
+      </c>
+      <c r="K44" t="s">
+        <v>261</v>
+      </c>
+      <c r="L44" t="s">
+        <v>262</v>
+      </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="O44" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="P44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>42427</v>
       </c>
-      <c r="B45" t="n">
-        <v>178403</v>
-      </c>
-      <c r="C45" t="s">
-        <v>316</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="J45" t="s">
-        <v>319</v>
-      </c>
-      <c r="K45" t="s"/>
-      <c r="L45" t="s"/>
+        <v>266</v>
+      </c>
+      <c r="K45" t="s">
+        <v>267</v>
+      </c>
+      <c r="L45" t="s">
+        <v>268</v>
+      </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="O45" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="P45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>42427</v>
       </c>
-      <c r="B46" t="n">
-        <v>5152</v>
-      </c>
-      <c r="C46" t="s">
-        <v>321</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>322</v>
+        <v>270</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c r="J46" t="s">
-        <v>324</v>
-      </c>
-      <c r="K46" t="s">
-        <v>325</v>
-      </c>
-      <c r="L46" t="s">
-        <v>326</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>327</v>
+        <v>269</v>
       </c>
       <c r="O46" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4633,71 +4820,65 @@
       </c>
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
-      <c r="Y46" t="s">
-        <v>326</v>
-      </c>
+      <c r="Y46" t="s"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>42427</v>
       </c>
-      <c r="B47" t="n">
-        <v>178404</v>
-      </c>
-      <c r="C47" t="s">
-        <v>328</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>329</v>
+        <v>273</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>330</v>
+        <v>274</v>
       </c>
       <c r="J47" t="s">
-        <v>331</v>
+        <v>275</v>
       </c>
       <c r="K47" t="s">
-        <v>332</v>
+        <v>276</v>
       </c>
       <c r="L47" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="O47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
       </c>
       <c r="Q47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R47" t="n">
         <v>5</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -4705,110 +4886,92 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>42427</v>
       </c>
-      <c r="B48" t="n">
-        <v>6944</v>
-      </c>
-      <c r="C48" t="s">
-        <v>335</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="J48" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="K48" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="L48" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="O48" t="s">
-        <v>58</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>3</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>3</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>42427</v>
       </c>
-      <c r="B49" t="n">
-        <v>178405</v>
-      </c>
-      <c r="C49" t="s">
-        <v>342</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>343</v>
+        <v>285</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="J49" t="s">
-        <v>345</v>
+        <v>287</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s"/>
@@ -4816,10 +4979,10 @@
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="O49" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -4828,64 +4991,63 @@
         <v>3</v>
       </c>
       <c r="R49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>42427</v>
       </c>
-      <c r="B50" t="n">
-        <v>178406</v>
-      </c>
-      <c r="C50" t="s">
-        <v>346</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>347</v>
+        <v>288</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>348</v>
+        <v>289</v>
       </c>
       <c r="J50" t="s">
-        <v>349</v>
+        <v>290</v>
       </c>
       <c r="K50" t="s">
-        <v>350</v>
+        <v>291</v>
       </c>
       <c r="L50" t="s">
-        <v>351</v>
+        <v>292</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>352</v>
+        <v>293</v>
       </c>
       <c r="O50" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="P50" t="n">
         <v>2</v>
@@ -4894,14 +5056,14 @@
         <v>4</v>
       </c>
       <c r="R50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S50" t="n">
         <v>4</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -4909,121 +5071,107 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>351</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>42427</v>
       </c>
-      <c r="B51" t="n">
-        <v>178407</v>
-      </c>
-      <c r="C51" t="s">
-        <v>353</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>354</v>
+        <v>294</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>355</v>
+        <v>295</v>
       </c>
       <c r="J51" t="s">
-        <v>356</v>
+        <v>296</v>
       </c>
       <c r="K51" t="s">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="L51" t="s">
-        <v>358</v>
+        <v>298</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
-      <c r="P51" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>3</v>
-      </c>
-      <c r="R51" t="n">
-        <v>3</v>
-      </c>
-      <c r="S51" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>299</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>1</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>359</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>42427</v>
       </c>
-      <c r="B52" t="n">
-        <v>178408</v>
-      </c>
-      <c r="C52" t="s">
-        <v>360</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>361</v>
+        <v>300</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>362</v>
+        <v>301</v>
       </c>
       <c r="J52" t="s">
-        <v>363</v>
+        <v>302</v>
       </c>
       <c r="K52" t="s">
-        <v>364</v>
+        <v>303</v>
       </c>
       <c r="L52" t="s">
-        <v>365</v>
+        <v>304</v>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>366</v>
+        <v>299</v>
       </c>
       <c r="O52" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5032,10 +5180,10 @@
         <v>3</v>
       </c>
       <c r="R52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
@@ -5047,7 +5195,2441 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>306</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>307</v>
+      </c>
+      <c r="J53" t="s">
+        <v>308</v>
+      </c>
+      <c r="K53" t="s">
+        <v>309</v>
+      </c>
+      <c r="L53" t="s">
+        <v>310</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>311</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>312</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>313</v>
+      </c>
+      <c r="J54" t="s">
+        <v>314</v>
+      </c>
+      <c r="K54" t="s">
+        <v>315</v>
+      </c>
+      <c r="L54" t="s">
+        <v>316</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>311</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>318</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>319</v>
+      </c>
+      <c r="J55" t="s">
+        <v>320</v>
+      </c>
+      <c r="K55" t="s">
+        <v>321</v>
+      </c>
+      <c r="L55" t="s">
+        <v>322</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>311</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>324</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>325</v>
+      </c>
+      <c r="J56" t="s">
+        <v>326</v>
+      </c>
+      <c r="K56" t="s">
+        <v>327</v>
+      </c>
+      <c r="L56" t="s">
+        <v>328</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>329</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>330</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>331</v>
+      </c>
+      <c r="J57" t="s">
+        <v>332</v>
+      </c>
+      <c r="K57" t="s">
+        <v>333</v>
+      </c>
+      <c r="L57" t="s">
+        <v>334</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>329</v>
+      </c>
+      <c r="O57" t="s">
+        <v>82</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>335</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>336</v>
+      </c>
+      <c r="J58" t="s">
+        <v>337</v>
+      </c>
+      <c r="K58" t="s">
+        <v>338</v>
+      </c>
+      <c r="L58" t="s">
+        <v>339</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>340</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>341</v>
+      </c>
+      <c r="J59" t="s">
+        <v>342</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s">
+        <v>343</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>344</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>346</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>347</v>
+      </c>
+      <c r="J60" t="s">
+        <v>348</v>
+      </c>
+      <c r="K60" t="s">
+        <v>349</v>
+      </c>
+      <c r="L60" t="s">
+        <v>350</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>344</v>
+      </c>
+      <c r="O60" t="s">
+        <v>72</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>351</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>352</v>
+      </c>
+      <c r="J61" t="s">
+        <v>353</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>354</v>
+      </c>
+      <c r="O61" t="s">
+        <v>52</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>355</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>356</v>
+      </c>
+      <c r="J62" t="s">
+        <v>357</v>
+      </c>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s"/>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>354</v>
+      </c>
+      <c r="O62" t="s">
+        <v>110</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>358</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>359</v>
+      </c>
+      <c r="J63" t="s">
+        <v>360</v>
+      </c>
+      <c r="K63" t="s">
+        <v>361</v>
+      </c>
+      <c r="L63" t="s">
+        <v>362</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>363</v>
+      </c>
+      <c r="O63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>364</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
         <v>365</v>
+      </c>
+      <c r="J64" t="s">
+        <v>366</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>367</v>
+      </c>
+      <c r="O64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>368</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>369</v>
+      </c>
+      <c r="J65" t="s">
+        <v>370</v>
+      </c>
+      <c r="K65" t="s">
+        <v>371</v>
+      </c>
+      <c r="L65" t="s">
+        <v>372</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>367</v>
+      </c>
+      <c r="O65" t="s">
+        <v>82</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>374</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>375</v>
+      </c>
+      <c r="J66" t="s">
+        <v>376</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>367</v>
+      </c>
+      <c r="O66" t="s">
+        <v>82</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>377</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>378</v>
+      </c>
+      <c r="J67" t="s">
+        <v>379</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s">
+        <v>343</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>380</v>
+      </c>
+      <c r="O67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>381</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>382</v>
+      </c>
+      <c r="J68" t="s">
+        <v>383</v>
+      </c>
+      <c r="K68" t="s">
+        <v>384</v>
+      </c>
+      <c r="L68" t="s">
+        <v>385</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>386</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>387</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>388</v>
+      </c>
+      <c r="J69" t="s">
+        <v>389</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s">
+        <v>343</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>386</v>
+      </c>
+      <c r="O69" t="s">
+        <v>52</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>390</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>391</v>
+      </c>
+      <c r="J70" t="s">
+        <v>392</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>393</v>
+      </c>
+      <c r="O70" t="s">
+        <v>52</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>394</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>395</v>
+      </c>
+      <c r="J71" t="s">
+        <v>396</v>
+      </c>
+      <c r="K71" t="s">
+        <v>397</v>
+      </c>
+      <c r="L71" t="s">
+        <v>398</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>399</v>
+      </c>
+      <c r="O71" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>400</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>401</v>
+      </c>
+      <c r="J72" t="s">
+        <v>402</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>399</v>
+      </c>
+      <c r="O72" t="s">
+        <v>110</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>403</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>404</v>
+      </c>
+      <c r="J73" t="s">
+        <v>405</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>406</v>
+      </c>
+      <c r="O73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>407</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>408</v>
+      </c>
+      <c r="J74" t="s">
+        <v>409</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>410</v>
+      </c>
+      <c r="O74" t="s">
+        <v>52</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>411</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>412</v>
+      </c>
+      <c r="J75" t="s">
+        <v>413</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s"/>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>414</v>
+      </c>
+      <c r="O75" t="s">
+        <v>82</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>415</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>416</v>
+      </c>
+      <c r="J76" t="s">
+        <v>417</v>
+      </c>
+      <c r="K76" t="s">
+        <v>418</v>
+      </c>
+      <c r="L76" t="s">
+        <v>419</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>414</v>
+      </c>
+      <c r="O76" t="s">
+        <v>82</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>420</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>421</v>
+      </c>
+      <c r="J77" t="s">
+        <v>422</v>
+      </c>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s"/>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>414</v>
+      </c>
+      <c r="O77" t="s">
+        <v>110</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>423</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>424</v>
+      </c>
+      <c r="J78" t="s">
+        <v>425</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s"/>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>414</v>
+      </c>
+      <c r="O78" t="s">
+        <v>52</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>426</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>427</v>
+      </c>
+      <c r="J79" t="s">
+        <v>428</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>429</v>
+      </c>
+      <c r="O79" t="s">
+        <v>82</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>430</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>431</v>
+      </c>
+      <c r="J80" t="s">
+        <v>432</v>
+      </c>
+      <c r="K80" t="s">
+        <v>433</v>
+      </c>
+      <c r="L80" t="s">
+        <v>434</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>435</v>
+      </c>
+      <c r="O80" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>436</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>437</v>
+      </c>
+      <c r="J81" t="s">
+        <v>438</v>
+      </c>
+      <c r="K81" t="s">
+        <v>439</v>
+      </c>
+      <c r="L81" t="s">
+        <v>440</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>442</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>443</v>
+      </c>
+      <c r="J82" t="s">
+        <v>444</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>445</v>
+      </c>
+      <c r="O82" t="s">
+        <v>52</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>446</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>447</v>
+      </c>
+      <c r="J83" t="s">
+        <v>448</v>
+      </c>
+      <c r="K83" t="s">
+        <v>449</v>
+      </c>
+      <c r="L83" t="s">
+        <v>450</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>451</v>
+      </c>
+      <c r="O83" t="s">
+        <v>52</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>452</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>453</v>
+      </c>
+      <c r="J84" t="s">
+        <v>454</v>
+      </c>
+      <c r="K84" t="s">
+        <v>455</v>
+      </c>
+      <c r="L84" t="s">
+        <v>456</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>457</v>
+      </c>
+      <c r="O84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>458</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>459</v>
+      </c>
+      <c r="J85" t="s">
+        <v>460</v>
+      </c>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s"/>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>457</v>
+      </c>
+      <c r="O85" t="s">
+        <v>52</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>461</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>462</v>
+      </c>
+      <c r="J86" t="s">
+        <v>463</v>
+      </c>
+      <c r="K86" t="s">
+        <v>464</v>
+      </c>
+      <c r="L86" t="s">
+        <v>465</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>466</v>
+      </c>
+      <c r="O86" t="s">
+        <v>82</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>468</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>469</v>
+      </c>
+      <c r="J87" t="s">
+        <v>470</v>
+      </c>
+      <c r="K87" t="s">
+        <v>471</v>
+      </c>
+      <c r="L87" t="s">
+        <v>472</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>473</v>
+      </c>
+      <c r="O87" t="s">
+        <v>110</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>474</v>
+      </c>
+      <c r="X87" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>477</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>478</v>
+      </c>
+      <c r="J88" t="s">
+        <v>479</v>
+      </c>
+      <c r="K88" t="s">
+        <v>480</v>
+      </c>
+      <c r="L88" t="s">
+        <v>481</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>482</v>
+      </c>
+      <c r="O88" t="s">
+        <v>52</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>483</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>484</v>
+      </c>
+      <c r="J89" t="s">
+        <v>485</v>
+      </c>
+      <c r="K89" t="s">
+        <v>486</v>
+      </c>
+      <c r="L89" t="s">
+        <v>487</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>42427</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>489</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>490</v>
+      </c>
+      <c r="J90" t="s">
+        <v>491</v>
+      </c>
+      <c r="K90" t="s">
+        <v>492</v>
+      </c>
+      <c r="L90" t="s">
+        <v>493</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>494</v>
+      </c>
+      <c r="O90" t="s">
+        <v>52</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
